--- a/state_results/Rivers/MangarangioraatusOrmondvilleSTP_baa62f8b12.xlsx
+++ b/state_results/Rivers/MangarangioraatusOrmondvilleSTP_baa62f8b12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U137"/>
+  <dimension ref="A1:U154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,13 +570,13 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>1.9756452834699</v>
+        <v>1.95852704099881</v>
       </c>
       <c r="H2" t="n">
         <v>6.23</v>
       </c>
       <c r="I2" t="n">
-        <v>3.90484</v>
+        <v>3.60088</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -587,7 +587,7 @@
         <v>2.5</v>
       </c>
       <c r="N2" t="n">
-        <v>3.005</v>
+        <v>2.99354</v>
       </c>
       <c r="O2" t="n">
         <v>1878758.348</v>
@@ -1153,7 +1153,7 @@
         <v>0.0069</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0176247806987043</v>
+        <v>0.0176341983931321</v>
       </c>
       <c r="H9" t="n">
         <v>0.125</v>
@@ -1234,7 +1234,7 @@
         <v>0.0069</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0176247806987043</v>
+        <v>0.0176341983931321</v>
       </c>
       <c r="H10" t="n">
         <v>0.125</v>
@@ -1315,7 +1315,7 @@
         <v>0.74</v>
       </c>
       <c r="G11" t="n">
-        <v>0.718996015185855</v>
+        <v>0.719032147324523</v>
       </c>
       <c r="H11" t="n">
         <v>1.92</v>
@@ -1396,7 +1396,7 @@
         <v>0.74</v>
       </c>
       <c r="G12" t="n">
-        <v>0.718996015185855</v>
+        <v>0.719032147324523</v>
       </c>
       <c r="H12" t="n">
         <v>1.92</v>
@@ -1473,7 +1473,7 @@
         <v>0.761</v>
       </c>
       <c r="G13" t="n">
-        <v>0.741473684210526</v>
+        <v>0.7414666666666671</v>
       </c>
       <c r="H13" t="n">
         <v>1.952</v>
@@ -1484,13 +1484,13 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.147</v>
+        <v>0.1468</v>
       </c>
       <c r="M13" t="n">
-        <v>1.35439</v>
+        <v>1.35397</v>
       </c>
       <c r="N13" t="n">
-        <v>1.56088</v>
+        <v>1.56126</v>
       </c>
       <c r="O13" t="n">
         <v>1878758.348</v>
@@ -1550,7 +1550,7 @@
         <v>0.761</v>
       </c>
       <c r="G14" t="n">
-        <v>0.741473684210526</v>
+        <v>0.7414666666666671</v>
       </c>
       <c r="H14" t="n">
         <v>1.952</v>
@@ -1561,13 +1561,13 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.147</v>
+        <v>0.1468</v>
       </c>
       <c r="M14" t="n">
-        <v>1.35439</v>
+        <v>1.35397</v>
       </c>
       <c r="N14" t="n">
-        <v>1.56088</v>
+        <v>1.56126</v>
       </c>
       <c r="O14" t="n">
         <v>1878758.348</v>
@@ -2522,7 +2522,7 @@
         <v>0.00303</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0151870112721913</v>
+        <v>0.0152099621428922</v>
       </c>
       <c r="H26" t="n">
         <v>0.125</v>
@@ -2603,7 +2603,7 @@
         <v>0.00303</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0151870112721913</v>
+        <v>0.0152099621428922</v>
       </c>
       <c r="H27" t="n">
         <v>0.125</v>
@@ -2684,7 +2684,7 @@
         <v>0.7225</v>
       </c>
       <c r="G28" t="n">
-        <v>0.691132952788339</v>
+        <v>0.691211245045376</v>
       </c>
       <c r="H28" t="n">
         <v>1.92</v>
@@ -2765,7 +2765,7 @@
         <v>0.7225</v>
       </c>
       <c r="G29" t="n">
-        <v>0.691132952788339</v>
+        <v>0.691211245045376</v>
       </c>
       <c r="H29" t="n">
         <v>1.92</v>
@@ -2842,7 +2842,7 @@
         <v>0.738</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7114805413286041</v>
+        <v>0.711534652507853</v>
       </c>
       <c r="H30" t="n">
         <v>1.952</v>
@@ -2853,13 +2853,13 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.1445</v>
+        <v>0.1444</v>
       </c>
       <c r="M30" t="n">
-        <v>1.3194</v>
+        <v>1.31939</v>
       </c>
       <c r="N30" t="n">
-        <v>1.5484</v>
+        <v>1.54868</v>
       </c>
       <c r="O30" t="n">
         <v>1878758.348</v>
@@ -2919,7 +2919,7 @@
         <v>0.738</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7114805413286041</v>
+        <v>0.711534652507853</v>
       </c>
       <c r="H31" t="n">
         <v>1.952</v>
@@ -2930,13 +2930,13 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0.1445</v>
+        <v>0.1444</v>
       </c>
       <c r="M31" t="n">
-        <v>1.3194</v>
+        <v>1.31939</v>
       </c>
       <c r="N31" t="n">
-        <v>1.5484</v>
+        <v>1.54868</v>
       </c>
       <c r="O31" t="n">
         <v>1878758.348</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.00265</v>
+        <v>0.00277</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0079168114525113</v>
+        <v>0.007949051368473599</v>
       </c>
       <c r="H43" t="n">
         <v>0.122185588325036</v>
@@ -3902,7 +3902,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.00111</v>
+        <v>0.00117</v>
       </c>
       <c r="M43" t="n">
         <v>0.01194</v>
@@ -3969,10 +3969,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.00265</v>
+        <v>0.00277</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0079168114525113</v>
+        <v>0.007949051368473599</v>
       </c>
       <c r="H44" t="n">
         <v>0.122185588325036</v>
@@ -3983,7 +3983,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.00111</v>
+        <v>0.00117</v>
       </c>
       <c r="M44" t="n">
         <v>0.01194</v>
@@ -4053,7 +4053,7 @@
         <v>0.5206499999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>0.732616286121672</v>
+        <v>0.73269457837871</v>
       </c>
       <c r="H45" t="n">
         <v>2.52</v>
@@ -4134,7 +4134,7 @@
         <v>0.5206499999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>0.732616286121672</v>
+        <v>0.73269457837871</v>
       </c>
       <c r="H46" t="n">
         <v>2.52</v>
@@ -4208,10 +4208,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.534</v>
+        <v>0.53415</v>
       </c>
       <c r="G47" t="n">
-        <v>0.748280541328604</v>
+        <v>0.74834131917452</v>
       </c>
       <c r="H47" t="n">
         <v>2.54</v>
@@ -4225,7 +4225,7 @@
         <v>0.0925</v>
       </c>
       <c r="M47" t="n">
-        <v>1.3691</v>
+        <v>1.36882</v>
       </c>
       <c r="N47" t="n">
         <v>1.6477</v>
@@ -4285,10 +4285,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.534</v>
+        <v>0.53415</v>
       </c>
       <c r="G48" t="n">
-        <v>0.748280541328604</v>
+        <v>0.74834131917452</v>
       </c>
       <c r="H48" t="n">
         <v>2.54</v>
@@ -4302,7 +4302,7 @@
         <v>0.0925</v>
       </c>
       <c r="M48" t="n">
-        <v>1.3691</v>
+        <v>1.36882</v>
       </c>
       <c r="N48" t="n">
         <v>1.6477</v>
@@ -4920,10 +4920,10 @@
         <v>205</v>
       </c>
       <c r="G56" t="n">
-        <v>604.258628837949</v>
+        <v>584.589648228522</v>
       </c>
       <c r="H56" t="n">
-        <v>5753.51773027693</v>
+        <v>5199</v>
       </c>
       <c r="I56" t="n">
         <v>2583</v>
@@ -5005,10 +5005,10 @@
         <v>205</v>
       </c>
       <c r="G57" t="n">
-        <v>604.258628837949</v>
+        <v>584.589648228522</v>
       </c>
       <c r="H57" t="n">
-        <v>5753.51773027693</v>
+        <v>5199</v>
       </c>
       <c r="I57" t="n">
         <v>2583</v>
@@ -5090,10 +5090,10 @@
         <v>205</v>
       </c>
       <c r="G58" t="n">
-        <v>604.258628837949</v>
+        <v>584.589648228522</v>
       </c>
       <c r="H58" t="n">
-        <v>5753.51773027693</v>
+        <v>5199</v>
       </c>
       <c r="I58" t="n">
         <v>2583</v>
@@ -5175,10 +5175,10 @@
         <v>205</v>
       </c>
       <c r="G59" t="n">
-        <v>604.258628837949</v>
+        <v>584.589648228522</v>
       </c>
       <c r="H59" t="n">
-        <v>5753.51773027693</v>
+        <v>5199</v>
       </c>
       <c r="I59" t="n">
         <v>2583</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.00328</v>
+        <v>0.00341</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0068932257999476</v>
+        <v>0.0069353679948533</v>
       </c>
       <c r="H60" t="n">
         <v>0.0597117149162601</v>
@@ -5271,7 +5271,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.00211</v>
+        <v>0.00227</v>
       </c>
       <c r="M60" t="n">
         <v>0.0121</v>
@@ -5338,10 +5338,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.00328</v>
+        <v>0.00341</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0068932257999476</v>
+        <v>0.0069353679948533</v>
       </c>
       <c r="H61" t="n">
         <v>0.0597117149162601</v>
@@ -5352,7 +5352,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0.00211</v>
+        <v>0.00227</v>
       </c>
       <c r="M61" t="n">
         <v>0.0121</v>
@@ -5422,7 +5422,7 @@
         <v>0.7605</v>
       </c>
       <c r="G62" t="n">
-        <v>0.761329619455005</v>
+        <v>0.761407911712043</v>
       </c>
       <c r="H62" t="n">
         <v>2.52</v>
@@ -5503,7 +5503,7 @@
         <v>0.7605</v>
       </c>
       <c r="G63" t="n">
-        <v>0.761329619455005</v>
+        <v>0.761407911712043</v>
       </c>
       <c r="H63" t="n">
         <v>2.52</v>
@@ -5580,7 +5580,7 @@
         <v>0.78</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7779805413286039</v>
+        <v>0.7780296525078531</v>
       </c>
       <c r="H64" t="n">
         <v>2.54</v>
@@ -5594,7 +5594,7 @@
         <v>0.1425</v>
       </c>
       <c r="M64" t="n">
-        <v>1.3691</v>
+        <v>1.36882</v>
       </c>
       <c r="N64" t="n">
         <v>1.6055</v>
@@ -5657,7 +5657,7 @@
         <v>0.78</v>
       </c>
       <c r="G65" t="n">
-        <v>0.7779805413286039</v>
+        <v>0.7780296525078531</v>
       </c>
       <c r="H65" t="n">
         <v>2.54</v>
@@ -5671,7 +5671,7 @@
         <v>0.1425</v>
       </c>
       <c r="M65" t="n">
-        <v>1.3691</v>
+        <v>1.36882</v>
       </c>
       <c r="N65" t="n">
         <v>1.6055</v>
@@ -6289,10 +6289,10 @@
         <v>225</v>
       </c>
       <c r="G73" t="n">
-        <v>520.241962171282</v>
+        <v>500.572981561855</v>
       </c>
       <c r="H73" t="n">
-        <v>5753.51773027693</v>
+        <v>4573.37889371131</v>
       </c>
       <c r="I73" t="n">
         <v>1671</v>
@@ -6374,10 +6374,10 @@
         <v>225</v>
       </c>
       <c r="G74" t="n">
-        <v>520.241962171282</v>
+        <v>500.572981561855</v>
       </c>
       <c r="H74" t="n">
-        <v>5753.51773027693</v>
+        <v>4573.37889371131</v>
       </c>
       <c r="I74" t="n">
         <v>1671</v>
@@ -6459,10 +6459,10 @@
         <v>225</v>
       </c>
       <c r="G75" t="n">
-        <v>520.241962171282</v>
+        <v>500.572981561855</v>
       </c>
       <c r="H75" t="n">
-        <v>5753.51773027693</v>
+        <v>4573.37889371131</v>
       </c>
       <c r="I75" t="n">
         <v>1671</v>
@@ -6544,10 +6544,10 @@
         <v>225</v>
       </c>
       <c r="G76" t="n">
-        <v>520.241962171282</v>
+        <v>500.572981561855</v>
       </c>
       <c r="H76" t="n">
-        <v>5753.51773027693</v>
+        <v>4573.37889371131</v>
       </c>
       <c r="I76" t="n">
         <v>1671</v>
@@ -6626,21 +6626,21 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.00468</v>
+        <v>0.00484</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009136339260576901</v>
+        <v>0.009184332373738001</v>
       </c>
       <c r="H77" t="n">
         <v>0.0597117149162601</v>
       </c>
       <c r="I77" t="n">
-        <v>0.02998</v>
+        <v>0.03008</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.00391</v>
+        <v>0.00398</v>
       </c>
       <c r="M77" t="n">
         <v>0.01509</v>
@@ -6707,21 +6707,21 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.00468</v>
+        <v>0.00484</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009136339260576901</v>
+        <v>0.009184332373738001</v>
       </c>
       <c r="H78" t="n">
         <v>0.0597117149162601</v>
       </c>
       <c r="I78" t="n">
-        <v>0.02998</v>
+        <v>0.03008</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.00391</v>
+        <v>0.00398</v>
       </c>
       <c r="M78" t="n">
         <v>0.01509</v>
@@ -6791,7 +6791,7 @@
         <v>0.707</v>
       </c>
       <c r="G79" t="n">
-        <v>0.7836246194550049</v>
+        <v>0.783702911712043</v>
       </c>
       <c r="H79" t="n">
         <v>2.52</v>
@@ -6872,7 +6872,7 @@
         <v>0.707</v>
       </c>
       <c r="G80" t="n">
-        <v>0.7836246194550049</v>
+        <v>0.783702911712043</v>
       </c>
       <c r="H80" t="n">
         <v>2.52</v>
@@ -6949,7 +6949,7 @@
         <v>0.715</v>
       </c>
       <c r="G81" t="n">
-        <v>0.802480541328604</v>
+        <v>0.80253131917452</v>
       </c>
       <c r="H81" t="n">
         <v>2.54</v>
@@ -7026,7 +7026,7 @@
         <v>0.715</v>
       </c>
       <c r="G82" t="n">
-        <v>0.802480541328604</v>
+        <v>0.80253131917452</v>
       </c>
       <c r="H82" t="n">
         <v>2.54</v>
@@ -7658,10 +7658,10 @@
         <v>200</v>
       </c>
       <c r="G90" t="n">
-        <v>459.517249665711</v>
+        <v>439.514896503582</v>
       </c>
       <c r="H90" t="n">
-        <v>5753.51773027693</v>
+        <v>4573.37889371131</v>
       </c>
       <c r="I90" t="n">
         <v>1610</v>
@@ -7743,10 +7743,10 @@
         <v>200</v>
       </c>
       <c r="G91" t="n">
-        <v>459.517249665711</v>
+        <v>439.514896503582</v>
       </c>
       <c r="H91" t="n">
-        <v>5753.51773027693</v>
+        <v>4573.37889371131</v>
       </c>
       <c r="I91" t="n">
         <v>1610</v>
@@ -7828,10 +7828,10 @@
         <v>200</v>
       </c>
       <c r="G92" t="n">
-        <v>459.517249665711</v>
+        <v>439.514896503582</v>
       </c>
       <c r="H92" t="n">
-        <v>5753.51773027693</v>
+        <v>4573.37889371131</v>
       </c>
       <c r="I92" t="n">
         <v>1610</v>
@@ -7913,10 +7913,10 @@
         <v>200</v>
       </c>
       <c r="G93" t="n">
-        <v>459.517249665711</v>
+        <v>439.514896503582</v>
       </c>
       <c r="H93" t="n">
-        <v>5753.51773027693</v>
+        <v>4573.37889371131</v>
       </c>
       <c r="I93" t="n">
         <v>1610</v>
@@ -7998,24 +7998,24 @@
         <v>0.00545</v>
       </c>
       <c r="G94" t="n">
-        <v>0.009261313847083501</v>
+        <v>0.0093047380689288</v>
       </c>
       <c r="H94" t="n">
         <v>0.0597117149162601</v>
       </c>
       <c r="I94" t="n">
-        <v>0.03004</v>
+        <v>0.03009</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.00409</v>
+        <v>0.00412</v>
       </c>
       <c r="M94" t="n">
         <v>0.01418</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0228</v>
+        <v>0.02288</v>
       </c>
       <c r="O94" t="n">
         <v>1878758.348</v>
@@ -8079,24 +8079,24 @@
         <v>0.00545</v>
       </c>
       <c r="G95" t="n">
-        <v>0.009261313847083501</v>
+        <v>0.0093047380689288</v>
       </c>
       <c r="H95" t="n">
         <v>0.0597117149162601</v>
       </c>
       <c r="I95" t="n">
-        <v>0.03004</v>
+        <v>0.03009</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.00409</v>
+        <v>0.00412</v>
       </c>
       <c r="M95" t="n">
         <v>0.01418</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0228</v>
+        <v>0.02288</v>
       </c>
       <c r="O95" t="n">
         <v>1878758.348</v>
@@ -8160,7 +8160,7 @@
         <v>0.626</v>
       </c>
       <c r="G96" t="n">
-        <v>0.761265897277034</v>
+        <v>0.761362350012067</v>
       </c>
       <c r="H96" t="n">
         <v>2.52</v>
@@ -8241,7 +8241,7 @@
         <v>0.626</v>
       </c>
       <c r="G97" t="n">
-        <v>0.761265897277034</v>
+        <v>0.761362350012067</v>
       </c>
       <c r="H97" t="n">
         <v>2.52</v>
@@ -8318,7 +8318,7 @@
         <v>0.635</v>
       </c>
       <c r="G98" t="n">
-        <v>0.779559318664811</v>
+        <v>0.779662306606473</v>
       </c>
       <c r="H98" t="n">
         <v>2.54</v>
@@ -8395,7 +8395,7 @@
         <v>0.635</v>
       </c>
       <c r="G99" t="n">
-        <v>0.779559318664811</v>
+        <v>0.779662306606473</v>
       </c>
       <c r="H99" t="n">
         <v>2.54</v>
@@ -9027,10 +9027,10 @@
         <v>180</v>
       </c>
       <c r="G107" t="n">
-        <v>434.890131021643</v>
+        <v>414.887777859514</v>
       </c>
       <c r="H107" t="n">
-        <v>5753.51773027693</v>
+        <v>4573.37889371131</v>
       </c>
       <c r="I107" t="n">
         <v>1975</v>
@@ -9112,10 +9112,10 @@
         <v>180</v>
       </c>
       <c r="G108" t="n">
-        <v>434.890131021643</v>
+        <v>414.887777859514</v>
       </c>
       <c r="H108" t="n">
-        <v>5753.51773027693</v>
+        <v>4573.37889371131</v>
       </c>
       <c r="I108" t="n">
         <v>1975</v>
@@ -9197,10 +9197,10 @@
         <v>180</v>
       </c>
       <c r="G109" t="n">
-        <v>434.890131021643</v>
+        <v>414.887777859514</v>
       </c>
       <c r="H109" t="n">
-        <v>5753.51773027693</v>
+        <v>4573.37889371131</v>
       </c>
       <c r="I109" t="n">
         <v>1975</v>
@@ -9282,10 +9282,10 @@
         <v>180</v>
       </c>
       <c r="G110" t="n">
-        <v>434.890131021643</v>
+        <v>414.887777859514</v>
       </c>
       <c r="H110" t="n">
-        <v>5753.51773027693</v>
+        <v>4573.37889371131</v>
       </c>
       <c r="I110" t="n">
         <v>1975</v>
@@ -9364,27 +9364,27 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.00463</v>
+        <v>0.00468</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0097511767636688</v>
+        <v>0.0097790026745066</v>
       </c>
       <c r="H111" t="n">
         <v>0.0730536907854253</v>
       </c>
       <c r="I111" t="n">
-        <v>0.04696</v>
+        <v>0.04701</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.00453</v>
+        <v>0.00456</v>
       </c>
       <c r="M111" t="n">
         <v>0.01418</v>
       </c>
       <c r="N111" t="n">
-        <v>0.0228</v>
+        <v>0.02288</v>
       </c>
       <c r="O111" t="n">
         <v>1878758.348</v>
@@ -9445,27 +9445,27 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.00463</v>
+        <v>0.00468</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0097511767636688</v>
+        <v>0.0097790026745066</v>
       </c>
       <c r="H112" t="n">
         <v>0.0730536907854253</v>
       </c>
       <c r="I112" t="n">
-        <v>0.04696</v>
+        <v>0.04701</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.00453</v>
+        <v>0.00456</v>
       </c>
       <c r="M112" t="n">
         <v>0.01418</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0228</v>
+        <v>0.02288</v>
       </c>
       <c r="O112" t="n">
         <v>1878758.348</v>
@@ -9529,7 +9529,7 @@
         <v>0.495</v>
       </c>
       <c r="G113" t="n">
-        <v>0.724787858265058</v>
+        <v>0.724839599076054</v>
       </c>
       <c r="H113" t="n">
         <v>2.52</v>
@@ -9610,7 +9610,7 @@
         <v>0.495</v>
       </c>
       <c r="G114" t="n">
-        <v>0.724787858265058</v>
+        <v>0.724839599076054</v>
       </c>
       <c r="H114" t="n">
         <v>2.52</v>
@@ -9687,7 +9687,7 @@
         <v>0.51</v>
       </c>
       <c r="G115" t="n">
-        <v>0.743104530873011</v>
+        <v>0.743145710835775</v>
       </c>
       <c r="H115" t="n">
         <v>2.54</v>
@@ -9764,7 +9764,7 @@
         <v>0.51</v>
       </c>
       <c r="G116" t="n">
-        <v>0.743104530873011</v>
+        <v>0.743145710835775</v>
       </c>
       <c r="H116" t="n">
         <v>2.54</v>
@@ -10396,10 +10396,10 @@
         <v>160</v>
       </c>
       <c r="G124" t="n">
-        <v>503.131890004858</v>
+        <v>482.427699889672</v>
       </c>
       <c r="H124" t="n">
-        <v>5753.51773027693</v>
+        <v>4573.37889371131</v>
       </c>
       <c r="I124" t="n">
         <v>2265</v>
@@ -10481,10 +10481,10 @@
         <v>160</v>
       </c>
       <c r="G125" t="n">
-        <v>503.131890004858</v>
+        <v>482.427699889672</v>
       </c>
       <c r="H125" t="n">
-        <v>5753.51773027693</v>
+        <v>4573.37889371131</v>
       </c>
       <c r="I125" t="n">
         <v>2265</v>
@@ -10566,10 +10566,10 @@
         <v>160</v>
       </c>
       <c r="G126" t="n">
-        <v>503.131890004858</v>
+        <v>482.427699889672</v>
       </c>
       <c r="H126" t="n">
-        <v>5753.51773027693</v>
+        <v>4573.37889371131</v>
       </c>
       <c r="I126" t="n">
         <v>2265</v>
@@ -10651,10 +10651,10 @@
         <v>160</v>
       </c>
       <c r="G127" t="n">
-        <v>503.131890004858</v>
+        <v>482.427699889672</v>
       </c>
       <c r="H127" t="n">
-        <v>5753.51773027693</v>
+        <v>4573.37889371131</v>
       </c>
       <c r="I127" t="n">
         <v>2265</v>
@@ -10736,7 +10736,7 @@
         <v>0.00577</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0103082703685095</v>
+        <v>0.0103261462869458</v>
       </c>
       <c r="H128" t="n">
         <v>0.0730536907854253</v>
@@ -10753,7 +10753,7 @@
         <v>0.01393</v>
       </c>
       <c r="N128" t="n">
-        <v>0.02783</v>
+        <v>0.02798</v>
       </c>
       <c r="O128" t="n">
         <v>1878758.348</v>
@@ -10817,7 +10817,7 @@
         <v>0.00577</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0103082703685095</v>
+        <v>0.0103261462869458</v>
       </c>
       <c r="H129" t="n">
         <v>0.0730536907854253</v>
@@ -10834,7 +10834,7 @@
         <v>0.01393</v>
       </c>
       <c r="N129" t="n">
-        <v>0.02783</v>
+        <v>0.02798</v>
       </c>
       <c r="O129" t="n">
         <v>1878758.348</v>
@@ -10898,7 +10898,7 @@
         <v>0.445</v>
       </c>
       <c r="G130" t="n">
-        <v>0.588815502414709</v>
+        <v>0.588869058692758</v>
       </c>
       <c r="H130" t="n">
         <v>2.14</v>
@@ -10979,7 +10979,7 @@
         <v>0.445</v>
       </c>
       <c r="G131" t="n">
-        <v>0.588815502414709</v>
+        <v>0.588869058692758</v>
       </c>
       <c r="H131" t="n">
         <v>2.14</v>
@@ -11056,7 +11056,7 @@
         <v>0.462</v>
       </c>
       <c r="G132" t="n">
-        <v>0.607266093359783</v>
+        <v>0.6073087182335209</v>
       </c>
       <c r="H132" t="n">
         <v>2.155</v>
@@ -11133,7 +11133,7 @@
         <v>0.462</v>
       </c>
       <c r="G133" t="n">
-        <v>0.607266093359783</v>
+        <v>0.6073087182335209</v>
       </c>
       <c r="H133" t="n">
         <v>2.155</v>
@@ -11492,6 +11492,1375 @@
         </is>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Mangarangiora at u/s Ormondville STP</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 4)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2.31538461538462</v>
+      </c>
+      <c r="H138" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I138" t="n">
+        <v>4.335</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M138" t="n">
+        <v>3.283</v>
+      </c>
+      <c r="N138" t="n">
+        <v>4.068</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1878758.348</v>
+      </c>
+      <c r="P138" t="n">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Mangarangiora at u/s Ormondville STP</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.034859649122807</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.0663</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.05381</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.06082</v>
+      </c>
+      <c r="O139" t="n">
+        <v>1878758.348</v>
+      </c>
+      <c r="P139" t="n">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Mangarangiora at u/s Ormondville STP</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.034859649122807</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.0663</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.05381</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.06082</v>
+      </c>
+      <c r="O140" t="n">
+        <v>1878758.348</v>
+      </c>
+      <c r="P140" t="n">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Mangarangiora at u/s Ormondville STP</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>187</v>
+      </c>
+      <c r="G141" t="n">
+        <v>443.298245614035</v>
+      </c>
+      <c r="H141" t="n">
+        <v>3300</v>
+      </c>
+      <c r="I141" t="n">
+        <v>2265</v>
+      </c>
+      <c r="J141" t="n">
+        <v>17.5438596491228</v>
+      </c>
+      <c r="K141" t="n">
+        <v>36.8421052631579</v>
+      </c>
+      <c r="L141" t="n">
+        <v>210</v>
+      </c>
+      <c r="M141" t="n">
+        <v>612.5599999999999</v>
+      </c>
+      <c r="N141" t="n">
+        <v>1670</v>
+      </c>
+      <c r="O141" t="n">
+        <v>1878758.348</v>
+      </c>
+      <c r="P141" t="n">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Mangarangiora at u/s Ormondville STP</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>187</v>
+      </c>
+      <c r="G142" t="n">
+        <v>443.298245614035</v>
+      </c>
+      <c r="H142" t="n">
+        <v>3300</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2265</v>
+      </c>
+      <c r="J142" t="n">
+        <v>17.5438596491228</v>
+      </c>
+      <c r="K142" t="n">
+        <v>36.8421052631579</v>
+      </c>
+      <c r="L142" t="n">
+        <v>210</v>
+      </c>
+      <c r="M142" t="n">
+        <v>612.5599999999999</v>
+      </c>
+      <c r="N142" t="n">
+        <v>1670</v>
+      </c>
+      <c r="O142" t="n">
+        <v>1878758.348</v>
+      </c>
+      <c r="P142" t="n">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Mangarangiora at u/s Ormondville STP</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>187</v>
+      </c>
+      <c r="G143" t="n">
+        <v>443.298245614035</v>
+      </c>
+      <c r="H143" t="n">
+        <v>3300</v>
+      </c>
+      <c r="I143" t="n">
+        <v>2265</v>
+      </c>
+      <c r="J143" t="n">
+        <v>17.5438596491228</v>
+      </c>
+      <c r="K143" t="n">
+        <v>36.8421052631579</v>
+      </c>
+      <c r="L143" t="n">
+        <v>210</v>
+      </c>
+      <c r="M143" t="n">
+        <v>612.5599999999999</v>
+      </c>
+      <c r="N143" t="n">
+        <v>1670</v>
+      </c>
+      <c r="O143" t="n">
+        <v>1878758.348</v>
+      </c>
+      <c r="P143" t="n">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Mangarangiora at u/s Ormondville STP</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>187</v>
+      </c>
+      <c r="G144" t="n">
+        <v>443.298245614035</v>
+      </c>
+      <c r="H144" t="n">
+        <v>3300</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2265</v>
+      </c>
+      <c r="J144" t="n">
+        <v>17.5438596491228</v>
+      </c>
+      <c r="K144" t="n">
+        <v>36.8421052631579</v>
+      </c>
+      <c r="L144" t="n">
+        <v>210</v>
+      </c>
+      <c r="M144" t="n">
+        <v>612.5599999999999</v>
+      </c>
+      <c r="N144" t="n">
+        <v>1670</v>
+      </c>
+      <c r="O144" t="n">
+        <v>1878758.348</v>
+      </c>
+      <c r="P144" t="n">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Mangarangiora at u/s Ormondville STP</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>0.00685</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.0102605221859975</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.0730536907854253</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.02965</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>0.00559</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0.01467</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.02585</v>
+      </c>
+      <c r="O145" t="n">
+        <v>1878758.348</v>
+      </c>
+      <c r="P145" t="n">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Mangarangiora at u/s Ormondville STP</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>0.00685</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.0102605221859975</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.0730536907854253</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.02965</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>0.00559</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0.01467</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.02585</v>
+      </c>
+      <c r="O146" t="n">
+        <v>1878758.348</v>
+      </c>
+      <c r="P146" t="n">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Mangarangiora at u/s Ormondville STP</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.612921690271705</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0.9933</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1.5422</v>
+      </c>
+      <c r="O147" t="n">
+        <v>1878758.348</v>
+      </c>
+      <c r="P147" t="n">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Mangarangiora at u/s Ormondville STP</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.612921690271705</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0.9933</v>
+      </c>
+      <c r="N148" t="n">
+        <v>1.5422</v>
+      </c>
+      <c r="O148" t="n">
+        <v>1878758.348</v>
+      </c>
+      <c r="P148" t="n">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Mangarangiora at u/s Ormondville STP</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.630817490163346</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2.155</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.7695</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1.01316</v>
+      </c>
+      <c r="N149" t="n">
+        <v>1.56878</v>
+      </c>
+      <c r="O149" t="n">
+        <v>1878758.348</v>
+      </c>
+      <c r="P149" t="n">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Mangarangiora at u/s Ormondville STP</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.630817490163346</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2.155</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1.7695</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1.01316</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1.56878</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1878758.348</v>
+      </c>
+      <c r="P150" t="n">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Mangarangiora at u/s Ormondville STP</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.862456140350877</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1.9655</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1.3429</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1.7476</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1878758.348</v>
+      </c>
+      <c r="P151" t="n">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Mangarangiora at u/s Ormondville STP</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.862456140350877</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1.9655</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1.3429</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1.7476</v>
+      </c>
+      <c r="O152" t="n">
+        <v>1878758.348</v>
+      </c>
+      <c r="P152" t="n">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Mangarangiora at u/s Ormondville STP</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.0511754385964912</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.0769</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.06994</v>
+      </c>
+      <c r="O153" t="n">
+        <v>1878758.348</v>
+      </c>
+      <c r="P153" t="n">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Mangarangiora at u/s Ormondville STP</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.0511754385964912</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.0769</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0.06994</v>
+      </c>
+      <c r="O154" t="n">
+        <v>1878758.348</v>
+      </c>
+      <c r="P154" t="n">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangarangioraatusOrmondvilleSTP_baa62f8b12.xlsx
+++ b/state_results/Rivers/MangarangioraatusOrmondvilleSTP_baa62f8b12.xlsx
@@ -570,13 +570,13 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>1.95852704099881</v>
+        <v>1.95755989882945</v>
       </c>
       <c r="H2" t="n">
         <v>6.23</v>
       </c>
       <c r="I2" t="n">
-        <v>3.60088</v>
+        <v>3.57651</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -587,7 +587,7 @@
         <v>2.5</v>
       </c>
       <c r="N2" t="n">
-        <v>2.99354</v>
+        <v>2.98785</v>
       </c>
       <c r="O2" t="n">
         <v>1878758.348</v>
@@ -4920,7 +4920,7 @@
         <v>205</v>
       </c>
       <c r="G56" t="n">
-        <v>584.589648228522</v>
+        <v>579.987477461993</v>
       </c>
       <c r="H56" t="n">
         <v>5199</v>
@@ -5005,7 +5005,7 @@
         <v>205</v>
       </c>
       <c r="G57" t="n">
-        <v>584.589648228522</v>
+        <v>579.987477461993</v>
       </c>
       <c r="H57" t="n">
         <v>5199</v>
@@ -5090,7 +5090,7 @@
         <v>205</v>
       </c>
       <c r="G58" t="n">
-        <v>584.589648228522</v>
+        <v>579.987477461993</v>
       </c>
       <c r="H58" t="n">
         <v>5199</v>
@@ -5175,7 +5175,7 @@
         <v>205</v>
       </c>
       <c r="G59" t="n">
-        <v>584.589648228522</v>
+        <v>579.987477461993</v>
       </c>
       <c r="H59" t="n">
         <v>5199</v>
@@ -6289,10 +6289,10 @@
         <v>225</v>
       </c>
       <c r="G73" t="n">
-        <v>500.572981561855</v>
+        <v>495.970810795327</v>
       </c>
       <c r="H73" t="n">
-        <v>4573.37889371131</v>
+        <v>4297.24864771959</v>
       </c>
       <c r="I73" t="n">
         <v>1671</v>
@@ -6374,10 +6374,10 @@
         <v>225</v>
       </c>
       <c r="G74" t="n">
-        <v>500.572981561855</v>
+        <v>495.970810795327</v>
       </c>
       <c r="H74" t="n">
-        <v>4573.37889371131</v>
+        <v>4297.24864771959</v>
       </c>
       <c r="I74" t="n">
         <v>1671</v>
@@ -6459,10 +6459,10 @@
         <v>225</v>
       </c>
       <c r="G75" t="n">
-        <v>500.572981561855</v>
+        <v>495.970810795327</v>
       </c>
       <c r="H75" t="n">
-        <v>4573.37889371131</v>
+        <v>4297.24864771959</v>
       </c>
       <c r="I75" t="n">
         <v>1671</v>
@@ -6544,10 +6544,10 @@
         <v>225</v>
       </c>
       <c r="G76" t="n">
-        <v>500.572981561855</v>
+        <v>495.970810795327</v>
       </c>
       <c r="H76" t="n">
-        <v>4573.37889371131</v>
+        <v>4297.24864771959</v>
       </c>
       <c r="I76" t="n">
         <v>1671</v>
@@ -7658,10 +7658,10 @@
         <v>200</v>
       </c>
       <c r="G90" t="n">
-        <v>439.514896503582</v>
+        <v>434.834722842705</v>
       </c>
       <c r="H90" t="n">
-        <v>4573.37889371131</v>
+        <v>4297.24864771959</v>
       </c>
       <c r="I90" t="n">
         <v>1610</v>
@@ -7743,10 +7743,10 @@
         <v>200</v>
       </c>
       <c r="G91" t="n">
-        <v>439.514896503582</v>
+        <v>434.834722842705</v>
       </c>
       <c r="H91" t="n">
-        <v>4573.37889371131</v>
+        <v>4297.24864771959</v>
       </c>
       <c r="I91" t="n">
         <v>1610</v>
@@ -7828,10 +7828,10 @@
         <v>200</v>
       </c>
       <c r="G92" t="n">
-        <v>439.514896503582</v>
+        <v>434.834722842705</v>
       </c>
       <c r="H92" t="n">
-        <v>4573.37889371131</v>
+        <v>4297.24864771959</v>
       </c>
       <c r="I92" t="n">
         <v>1610</v>
@@ -7913,10 +7913,10 @@
         <v>200</v>
       </c>
       <c r="G93" t="n">
-        <v>439.514896503582</v>
+        <v>434.834722842705</v>
       </c>
       <c r="H93" t="n">
-        <v>4573.37889371131</v>
+        <v>4297.24864771959</v>
       </c>
       <c r="I93" t="n">
         <v>1610</v>
@@ -9027,10 +9027,10 @@
         <v>180</v>
       </c>
       <c r="G107" t="n">
-        <v>414.887777859514</v>
+        <v>410.207604198637</v>
       </c>
       <c r="H107" t="n">
-        <v>4573.37889371131</v>
+        <v>4297.24864771959</v>
       </c>
       <c r="I107" t="n">
         <v>1975</v>
@@ -9112,10 +9112,10 @@
         <v>180</v>
       </c>
       <c r="G108" t="n">
-        <v>414.887777859514</v>
+        <v>410.207604198637</v>
       </c>
       <c r="H108" t="n">
-        <v>4573.37889371131</v>
+        <v>4297.24864771959</v>
       </c>
       <c r="I108" t="n">
         <v>1975</v>
@@ -9197,10 +9197,10 @@
         <v>180</v>
       </c>
       <c r="G109" t="n">
-        <v>414.887777859514</v>
+        <v>410.207604198637</v>
       </c>
       <c r="H109" t="n">
-        <v>4573.37889371131</v>
+        <v>4297.24864771959</v>
       </c>
       <c r="I109" t="n">
         <v>1975</v>
@@ -9282,10 +9282,10 @@
         <v>180</v>
       </c>
       <c r="G110" t="n">
-        <v>414.887777859514</v>
+        <v>410.207604198637</v>
       </c>
       <c r="H110" t="n">
-        <v>4573.37889371131</v>
+        <v>4297.24864771959</v>
       </c>
       <c r="I110" t="n">
         <v>1975</v>
@@ -10396,10 +10396,10 @@
         <v>160</v>
       </c>
       <c r="G124" t="n">
-        <v>482.427699889672</v>
+        <v>477.583309609116</v>
       </c>
       <c r="H124" t="n">
-        <v>4573.37889371131</v>
+        <v>4297.24864771959</v>
       </c>
       <c r="I124" t="n">
         <v>2265</v>
@@ -10481,10 +10481,10 @@
         <v>160</v>
       </c>
       <c r="G125" t="n">
-        <v>482.427699889672</v>
+        <v>477.583309609116</v>
       </c>
       <c r="H125" t="n">
-        <v>4573.37889371131</v>
+        <v>4297.24864771959</v>
       </c>
       <c r="I125" t="n">
         <v>2265</v>
@@ -10566,10 +10566,10 @@
         <v>160</v>
       </c>
       <c r="G126" t="n">
-        <v>482.427699889672</v>
+        <v>477.583309609116</v>
       </c>
       <c r="H126" t="n">
-        <v>4573.37889371131</v>
+        <v>4297.24864771959</v>
       </c>
       <c r="I126" t="n">
         <v>2265</v>
@@ -10651,10 +10651,10 @@
         <v>160</v>
       </c>
       <c r="G127" t="n">
-        <v>482.427699889672</v>
+        <v>477.583309609116</v>
       </c>
       <c r="H127" t="n">
-        <v>4573.37889371131</v>
+        <v>4297.24864771959</v>
       </c>
       <c r="I127" t="n">
         <v>2265</v>

--- a/state_results/Rivers/MangarangioraatusOrmondvilleSTP_baa62f8b12.xlsx
+++ b/state_results/Rivers/MangarangioraatusOrmondvilleSTP_baa62f8b12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="67">
   <si>
     <t>site name</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -569,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U154"/>
+  <dimension ref="A1:U171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,19 +657,19 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>1.9498531925927</v>
+        <v>1.95997107243636</v>
       </c>
       <c r="H2">
         <v>6.23</v>
       </c>
       <c r="I2">
-        <v>3.3823</v>
+        <v>3.63727</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -675,7 +678,7 @@
         <v>2.5</v>
       </c>
       <c r="N2">
-        <v>2.94254</v>
+        <v>3.00203</v>
       </c>
       <c r="O2">
         <v>1878758.348</v>
@@ -684,19 +687,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -713,7 +716,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>0.033</v>
@@ -743,19 +746,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -772,7 +775,7 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <v>0.033</v>
@@ -802,19 +805,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -831,7 +834,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5">
         <v>297</v>
@@ -852,7 +855,7 @@
         <v>54.3859649122807</v>
       </c>
       <c r="L5">
-        <v>744</v>
+        <v>370</v>
       </c>
       <c r="M5">
         <v>944.49</v>
@@ -867,19 +870,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -896,7 +899,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>297</v>
@@ -917,7 +920,7 @@
         <v>54.3859649122807</v>
       </c>
       <c r="L6">
-        <v>744</v>
+        <v>370</v>
       </c>
       <c r="M6">
         <v>944.49</v>
@@ -932,19 +935,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -961,7 +964,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7">
         <v>297</v>
@@ -982,7 +985,7 @@
         <v>54.3859649122807</v>
       </c>
       <c r="L7">
-        <v>744</v>
+        <v>370</v>
       </c>
       <c r="M7">
         <v>944.49</v>
@@ -997,19 +1000,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1026,7 +1029,7 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8">
         <v>297</v>
@@ -1047,7 +1050,7 @@
         <v>54.3859649122807</v>
       </c>
       <c r="L8">
-        <v>744</v>
+        <v>370</v>
       </c>
       <c r="M8">
         <v>944.49</v>
@@ -1062,19 +1065,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1091,13 +1094,13 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>0.0069</v>
       </c>
       <c r="G9">
-        <v>0.0176341983931321</v>
+        <v>0.017633835022756</v>
       </c>
       <c r="H9">
         <v>0.125</v>
@@ -1106,7 +1109,7 @@
         <v>0.09962</v>
       </c>
       <c r="L9">
-        <v>0.0009700000000000001</v>
+        <v>0.00296</v>
       </c>
       <c r="M9">
         <v>0.03175</v>
@@ -1121,19 +1124,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1150,13 +1153,13 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10">
         <v>0.0069</v>
       </c>
       <c r="G10">
-        <v>0.0176341983931321</v>
+        <v>0.017633835022756</v>
       </c>
       <c r="H10">
         <v>0.125</v>
@@ -1165,7 +1168,7 @@
         <v>0.09962</v>
       </c>
       <c r="L10">
-        <v>0.0009700000000000001</v>
+        <v>0.00296</v>
       </c>
       <c r="M10">
         <v>0.03175</v>
@@ -1180,19 +1183,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1209,13 +1212,13 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <v>0.74</v>
       </c>
       <c r="G11">
-        <v>0.719032147324523</v>
+        <v>0.71904331315946</v>
       </c>
       <c r="H11">
         <v>1.92</v>
@@ -1224,7 +1227,7 @@
         <v>1.6</v>
       </c>
       <c r="L11">
-        <v>0.1435</v>
+        <v>0.23</v>
       </c>
       <c r="M11">
         <v>1.32686</v>
@@ -1239,19 +1242,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1268,13 +1271,13 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12">
         <v>0.74</v>
       </c>
       <c r="G12">
-        <v>0.719032147324523</v>
+        <v>0.71904331315946</v>
       </c>
       <c r="H12">
         <v>1.92</v>
@@ -1283,7 +1286,7 @@
         <v>1.6</v>
       </c>
       <c r="L12">
-        <v>0.1435</v>
+        <v>0.23</v>
       </c>
       <c r="M12">
         <v>1.32686</v>
@@ -1298,19 +1301,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1324,7 +1327,7 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13">
         <v>0.761</v>
@@ -1339,7 +1342,7 @@
         <v>1.6562</v>
       </c>
       <c r="L13">
-        <v>0.1468</v>
+        <v>0.2576</v>
       </c>
       <c r="M13">
         <v>1.35397</v>
@@ -1354,19 +1357,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1380,7 +1383,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F14">
         <v>0.761</v>
@@ -1395,7 +1398,7 @@
         <v>1.6562</v>
       </c>
       <c r="L14">
-        <v>0.1468</v>
+        <v>0.2576</v>
       </c>
       <c r="M14">
         <v>1.35397</v>
@@ -1410,19 +1413,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1436,7 +1439,7 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1451,7 +1454,7 @@
         <v>2.0335</v>
       </c>
       <c r="L15">
-        <v>0.431</v>
+        <v>0.523</v>
       </c>
       <c r="M15">
         <v>1.68917</v>
@@ -1466,19 +1469,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1492,7 +1495,7 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1507,7 +1510,7 @@
         <v>2.0335</v>
       </c>
       <c r="L16">
-        <v>0.431</v>
+        <v>0.523</v>
       </c>
       <c r="M16">
         <v>1.68917</v>
@@ -1522,19 +1525,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1548,7 +1551,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17">
         <v>0.05</v>
@@ -1563,7 +1566,7 @@
         <v>0.08455</v>
       </c>
       <c r="L17">
-        <v>0.065</v>
+        <v>0.063</v>
       </c>
       <c r="M17">
         <v>0.07099999999999999</v>
@@ -1578,19 +1581,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1604,7 +1607,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18">
         <v>0.05</v>
@@ -1619,7 +1622,7 @@
         <v>0.08455</v>
       </c>
       <c r="L18">
-        <v>0.065</v>
+        <v>0.063</v>
       </c>
       <c r="M18">
         <v>0.07099999999999999</v>
@@ -1634,19 +1637,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1663,7 +1666,7 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1693,19 +1696,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1722,7 +1725,7 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20">
         <v>0.034</v>
@@ -1737,7 +1740,7 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="L20">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="M20">
         <v>0.0583</v>
@@ -1752,19 +1755,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1781,7 +1784,7 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21">
         <v>0.034</v>
@@ -1796,7 +1799,7 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="L21">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="M21">
         <v>0.0583</v>
@@ -1811,19 +1814,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1840,7 +1843,7 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22">
         <v>247</v>
@@ -1861,7 +1864,7 @@
         <v>48.3333333333333</v>
       </c>
       <c r="L22">
-        <v>572</v>
+        <v>365</v>
       </c>
       <c r="M22">
         <v>878.7</v>
@@ -1876,19 +1879,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1905,7 +1908,7 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23">
         <v>247</v>
@@ -1926,7 +1929,7 @@
         <v>48.3333333333333</v>
       </c>
       <c r="L23">
-        <v>572</v>
+        <v>365</v>
       </c>
       <c r="M23">
         <v>878.7</v>
@@ -1941,19 +1944,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1970,7 +1973,7 @@
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24">
         <v>247</v>
@@ -1991,7 +1994,7 @@
         <v>48.3333333333333</v>
       </c>
       <c r="L24">
-        <v>572</v>
+        <v>365</v>
       </c>
       <c r="M24">
         <v>878.7</v>
@@ -2006,19 +2009,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2035,7 +2038,7 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25">
         <v>247</v>
@@ -2056,7 +2059,7 @@
         <v>48.3333333333333</v>
       </c>
       <c r="L25">
-        <v>572</v>
+        <v>365</v>
       </c>
       <c r="M25">
         <v>878.7</v>
@@ -2071,19 +2074,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2100,13 +2103,13 @@
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26">
         <v>0.00303</v>
       </c>
       <c r="G26">
-        <v>0.0152099621428922</v>
+        <v>0.0152087782259209</v>
       </c>
       <c r="H26">
         <v>0.125</v>
@@ -2115,7 +2118,7 @@
         <v>0.09805999999999999</v>
       </c>
       <c r="L26">
-        <v>0.001</v>
+        <v>0.00173</v>
       </c>
       <c r="M26">
         <v>0.0218</v>
@@ -2130,19 +2133,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2159,13 +2162,13 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F27">
         <v>0.00303</v>
       </c>
       <c r="G27">
-        <v>0.0152099621428922</v>
+        <v>0.0152087782259209</v>
       </c>
       <c r="H27">
         <v>0.125</v>
@@ -2174,7 +2177,7 @@
         <v>0.09805999999999999</v>
       </c>
       <c r="L27">
-        <v>0.001</v>
+        <v>0.00173</v>
       </c>
       <c r="M27">
         <v>0.0218</v>
@@ -2189,19 +2192,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2218,13 +2221,13 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28">
         <v>0.7225</v>
       </c>
       <c r="G28">
-        <v>0.691211245045376</v>
+        <v>0.691233075717905</v>
       </c>
       <c r="H28">
         <v>1.92</v>
@@ -2233,7 +2236,7 @@
         <v>1.6</v>
       </c>
       <c r="L28">
-        <v>0.13175</v>
+        <v>0.2554</v>
       </c>
       <c r="M28">
         <v>1.30211</v>
@@ -2248,19 +2251,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2277,13 +2280,13 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29">
         <v>0.7225</v>
       </c>
       <c r="G29">
-        <v>0.691211245045376</v>
+        <v>0.691233075717905</v>
       </c>
       <c r="H29">
         <v>1.92</v>
@@ -2292,7 +2295,7 @@
         <v>1.6</v>
       </c>
       <c r="L29">
-        <v>0.13175</v>
+        <v>0.2554</v>
       </c>
       <c r="M29">
         <v>1.30211</v>
@@ -2307,19 +2310,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2333,13 +2336,13 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F30">
         <v>0.738</v>
       </c>
       <c r="G30">
-        <v>0.711534652507853</v>
+        <v>0.711538505435661</v>
       </c>
       <c r="H30">
         <v>1.952</v>
@@ -2348,7 +2351,7 @@
         <v>1.655</v>
       </c>
       <c r="L30">
-        <v>0.1444</v>
+        <v>0.27005</v>
       </c>
       <c r="M30">
         <v>1.31939</v>
@@ -2363,19 +2366,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2389,13 +2392,13 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F31">
         <v>0.738</v>
       </c>
       <c r="G31">
-        <v>0.711534652507853</v>
+        <v>0.711538505435661</v>
       </c>
       <c r="H31">
         <v>1.952</v>
@@ -2404,7 +2407,7 @@
         <v>1.655</v>
       </c>
       <c r="L31">
-        <v>0.1444</v>
+        <v>0.27005</v>
       </c>
       <c r="M31">
         <v>1.31939</v>
@@ -2419,19 +2422,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2445,7 +2448,7 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F32">
         <v>0.9825</v>
@@ -2460,7 +2463,7 @@
         <v>1.8745</v>
       </c>
       <c r="L32">
-        <v>0.477</v>
+        <v>0.5615</v>
       </c>
       <c r="M32">
         <v>1.6218</v>
@@ -2475,19 +2478,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2501,7 +2504,7 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F33">
         <v>0.9825</v>
@@ -2516,7 +2519,7 @@
         <v>1.8745</v>
       </c>
       <c r="L33">
-        <v>0.477</v>
+        <v>0.5615</v>
       </c>
       <c r="M33">
         <v>1.6218</v>
@@ -2531,19 +2534,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2557,7 +2560,7 @@
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F34">
         <v>0.0545</v>
@@ -2572,7 +2575,7 @@
         <v>0.0835</v>
       </c>
       <c r="L34">
-        <v>0.067</v>
+        <v>0.064</v>
       </c>
       <c r="M34">
         <v>0.07530000000000001</v>
@@ -2587,19 +2590,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2613,7 +2616,7 @@
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F35">
         <v>0.0545</v>
@@ -2628,7 +2631,7 @@
         <v>0.0835</v>
       </c>
       <c r="L35">
-        <v>0.067</v>
+        <v>0.064</v>
       </c>
       <c r="M35">
         <v>0.07530000000000001</v>
@@ -2643,19 +2646,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2672,7 +2675,7 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F36">
         <v>1.875</v>
@@ -2702,19 +2705,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2731,7 +2734,7 @@
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F37">
         <v>0.0365</v>
@@ -2746,7 +2749,7 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="L37">
-        <v>0.0525</v>
+        <v>0.05</v>
       </c>
       <c r="M37">
         <v>0.0616</v>
@@ -2761,19 +2764,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2790,7 +2793,7 @@
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F38">
         <v>0.0365</v>
@@ -2805,7 +2808,7 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="L38">
-        <v>0.0525</v>
+        <v>0.05</v>
       </c>
       <c r="M38">
         <v>0.0616</v>
@@ -2820,19 +2823,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2849,7 +2852,7 @@
         <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F39">
         <v>240</v>
@@ -2870,7 +2873,7 @@
         <v>45</v>
       </c>
       <c r="L39">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="M39">
         <v>878.7</v>
@@ -2885,19 +2888,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2914,7 +2917,7 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F40">
         <v>240</v>
@@ -2935,7 +2938,7 @@
         <v>45</v>
       </c>
       <c r="L40">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="M40">
         <v>878.7</v>
@@ -2950,19 +2953,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2979,7 +2982,7 @@
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F41">
         <v>240</v>
@@ -3000,7 +3003,7 @@
         <v>45</v>
       </c>
       <c r="L41">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="M41">
         <v>878.7</v>
@@ -3015,19 +3018,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3044,7 +3047,7 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F42">
         <v>240</v>
@@ -3065,7 +3068,7 @@
         <v>45</v>
       </c>
       <c r="L42">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="M42">
         <v>878.7</v>
@@ -3080,19 +3083,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3109,13 +3112,13 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F43">
-        <v>0.00277</v>
+        <v>0.00276</v>
       </c>
       <c r="G43">
-        <v>0.007949051368473599</v>
+        <v>0.007947138547332</v>
       </c>
       <c r="H43">
         <v>0.122185588325036</v>
@@ -3124,7 +3127,7 @@
         <v>0.02755</v>
       </c>
       <c r="L43">
-        <v>0.00117</v>
+        <v>0.00173</v>
       </c>
       <c r="M43">
         <v>0.01194</v>
@@ -3139,19 +3142,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3168,13 +3171,13 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44">
-        <v>0.00277</v>
+        <v>0.00276</v>
       </c>
       <c r="G44">
-        <v>0.007949051368473599</v>
+        <v>0.007947138547332</v>
       </c>
       <c r="H44">
         <v>0.122185588325036</v>
@@ -3183,7 +3186,7 @@
         <v>0.02755</v>
       </c>
       <c r="L44">
-        <v>0.00117</v>
+        <v>0.00173</v>
       </c>
       <c r="M44">
         <v>0.01194</v>
@@ -3198,19 +3201,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3227,13 +3230,13 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F45">
         <v>0.5206499999999999</v>
       </c>
       <c r="G45">
-        <v>0.73269457837871</v>
+        <v>0.732716409051238</v>
       </c>
       <c r="H45">
         <v>2.52</v>
@@ -3242,7 +3245,7 @@
         <v>1.65</v>
       </c>
       <c r="L45">
-        <v>0.0805</v>
+        <v>0.16325</v>
       </c>
       <c r="M45">
         <v>1.345</v>
@@ -3257,19 +3260,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3286,13 +3289,13 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F46">
         <v>0.5206499999999999</v>
       </c>
       <c r="G46">
-        <v>0.73269457837871</v>
+        <v>0.732716409051238</v>
       </c>
       <c r="H46">
         <v>2.52</v>
@@ -3301,7 +3304,7 @@
         <v>1.65</v>
       </c>
       <c r="L46">
-        <v>0.0805</v>
+        <v>0.16325</v>
       </c>
       <c r="M46">
         <v>1.345</v>
@@ -3316,19 +3319,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3342,13 +3345,13 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F47">
         <v>0.53415</v>
       </c>
       <c r="G47">
-        <v>0.74834131917452</v>
+        <v>0.748345172102328</v>
       </c>
       <c r="H47">
         <v>2.54</v>
@@ -3357,7 +3360,7 @@
         <v>1.6895</v>
       </c>
       <c r="L47">
-        <v>0.0925</v>
+        <v>0.1709</v>
       </c>
       <c r="M47">
         <v>1.36882</v>
@@ -3372,19 +3375,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3398,13 +3401,13 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F48">
         <v>0.53415</v>
       </c>
       <c r="G48">
-        <v>0.74834131917452</v>
+        <v>0.748345172102328</v>
       </c>
       <c r="H48">
         <v>2.54</v>
@@ -3413,7 +3416,7 @@
         <v>1.6895</v>
       </c>
       <c r="L48">
-        <v>0.0925</v>
+        <v>0.1709</v>
       </c>
       <c r="M48">
         <v>1.36882</v>
@@ -3428,19 +3431,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3454,7 +3457,7 @@
         <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F49">
         <v>0.9005</v>
@@ -3469,7 +3472,7 @@
         <v>1.925</v>
       </c>
       <c r="L49">
-        <v>0.4205</v>
+        <v>0.5115</v>
       </c>
       <c r="M49">
         <v>1.709</v>
@@ -3484,19 +3487,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3510,7 +3513,7 @@
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F50">
         <v>0.9005</v>
@@ -3525,7 +3528,7 @@
         <v>1.925</v>
       </c>
       <c r="L50">
-        <v>0.4205</v>
+        <v>0.5115</v>
       </c>
       <c r="M50">
         <v>1.709</v>
@@ -3540,19 +3543,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3566,7 +3569,7 @@
         <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F51">
         <v>0.0595</v>
@@ -3581,7 +3584,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="L51">
-        <v>0.07000000000000001</v>
+        <v>0.067</v>
       </c>
       <c r="M51">
         <v>0.0776</v>
@@ -3596,19 +3599,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3622,7 +3625,7 @@
         <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F52">
         <v>0.0595</v>
@@ -3637,7 +3640,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="L52">
-        <v>0.07000000000000001</v>
+        <v>0.067</v>
       </c>
       <c r="M52">
         <v>0.0776</v>
@@ -3652,19 +3655,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3681,7 +3684,7 @@
         <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F53">
         <v>1.85</v>
@@ -3696,7 +3699,7 @@
         <v>2.9</v>
       </c>
       <c r="L53">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M53">
         <v>2.5</v>
@@ -3711,19 +3714,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3740,7 +3743,7 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F54">
         <v>0.0365</v>
@@ -3755,7 +3758,7 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="L54">
-        <v>0.0525</v>
+        <v>0.049</v>
       </c>
       <c r="M54">
         <v>0.0583</v>
@@ -3770,19 +3773,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3799,7 +3802,7 @@
         <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F55">
         <v>0.0365</v>
@@ -3814,7 +3817,7 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="L55">
-        <v>0.0525</v>
+        <v>0.049</v>
       </c>
       <c r="M55">
         <v>0.0583</v>
@@ -3829,19 +3832,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3858,13 +3861,13 @@
         <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F56">
         <v>205</v>
       </c>
       <c r="G56">
-        <v>588.562815552605</v>
+        <v>593.420236635667</v>
       </c>
       <c r="H56">
         <v>5199</v>
@@ -3879,7 +3882,7 @@
         <v>35</v>
       </c>
       <c r="L56">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="M56">
         <v>894</v>
@@ -3894,19 +3897,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3923,13 +3926,13 @@
         <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F57">
         <v>205</v>
       </c>
       <c r="G57">
-        <v>588.562815552605</v>
+        <v>593.420236635667</v>
       </c>
       <c r="H57">
         <v>5199</v>
@@ -3944,7 +3947,7 @@
         <v>35</v>
       </c>
       <c r="L57">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="M57">
         <v>894</v>
@@ -3959,19 +3962,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3988,13 +3991,13 @@
         <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F58">
         <v>205</v>
       </c>
       <c r="G58">
-        <v>588.562815552605</v>
+        <v>593.420236635667</v>
       </c>
       <c r="H58">
         <v>5199</v>
@@ -4009,7 +4012,7 @@
         <v>35</v>
       </c>
       <c r="L58">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="M58">
         <v>894</v>
@@ -4024,19 +4027,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4053,13 +4056,13 @@
         <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F59">
         <v>205</v>
       </c>
       <c r="G59">
-        <v>588.562815552605</v>
+        <v>593.420236635667</v>
       </c>
       <c r="H59">
         <v>5199</v>
@@ -4074,7 +4077,7 @@
         <v>35</v>
       </c>
       <c r="L59">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="M59">
         <v>894</v>
@@ -4089,19 +4092,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4118,13 +4121,13 @@
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F60">
-        <v>0.00341</v>
+        <v>0.0034</v>
       </c>
       <c r="G60">
-        <v>0.0069353679948533</v>
+        <v>0.006932546869486</v>
       </c>
       <c r="H60">
         <v>0.0597117149162601</v>
@@ -4133,7 +4136,7 @@
         <v>0.02249</v>
       </c>
       <c r="L60">
-        <v>0.00227</v>
+        <v>0.00302</v>
       </c>
       <c r="M60">
         <v>0.0121</v>
@@ -4148,19 +4151,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4177,13 +4180,13 @@
         <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F61">
-        <v>0.00341</v>
+        <v>0.0034</v>
       </c>
       <c r="G61">
-        <v>0.0069353679948533</v>
+        <v>0.006932546869486</v>
       </c>
       <c r="H61">
         <v>0.0597117149162601</v>
@@ -4192,7 +4195,7 @@
         <v>0.02249</v>
       </c>
       <c r="L61">
-        <v>0.00227</v>
+        <v>0.00302</v>
       </c>
       <c r="M61">
         <v>0.0121</v>
@@ -4207,19 +4210,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4236,13 +4239,13 @@
         <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F62">
         <v>0.7605</v>
       </c>
       <c r="G62">
-        <v>0.761407911712043</v>
+        <v>0.761429742384572</v>
       </c>
       <c r="H62">
         <v>2.52</v>
@@ -4251,7 +4254,7 @@
         <v>1.675</v>
       </c>
       <c r="L62">
-        <v>0.1225</v>
+        <v>0.1785</v>
       </c>
       <c r="M62">
         <v>1.345</v>
@@ -4266,19 +4269,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4295,13 +4298,13 @@
         <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F63">
         <v>0.7605</v>
       </c>
       <c r="G63">
-        <v>0.761407911712043</v>
+        <v>0.761429742384572</v>
       </c>
       <c r="H63">
         <v>2.52</v>
@@ -4310,7 +4313,7 @@
         <v>1.675</v>
       </c>
       <c r="L63">
-        <v>0.1225</v>
+        <v>0.1785</v>
       </c>
       <c r="M63">
         <v>1.345</v>
@@ -4325,19 +4328,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4351,13 +4354,13 @@
         <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F64">
         <v>0.78</v>
       </c>
       <c r="G64">
-        <v>0.7780296525078531</v>
+        <v>0.778033505435661</v>
       </c>
       <c r="H64">
         <v>2.54</v>
@@ -4366,7 +4369,7 @@
         <v>1.7</v>
       </c>
       <c r="L64">
-        <v>0.1425</v>
+        <v>0.19</v>
       </c>
       <c r="M64">
         <v>1.36882</v>
@@ -4381,19 +4384,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4407,13 +4410,13 @@
         <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F65">
         <v>0.78</v>
       </c>
       <c r="G65">
-        <v>0.7780296525078531</v>
+        <v>0.778033505435661</v>
       </c>
       <c r="H65">
         <v>2.54</v>
@@ -4422,7 +4425,7 @@
         <v>1.7</v>
       </c>
       <c r="L65">
-        <v>0.1425</v>
+        <v>0.19</v>
       </c>
       <c r="M65">
         <v>1.36882</v>
@@ -4437,19 +4440,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4463,7 +4466,7 @@
         <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F66">
         <v>1.0535</v>
@@ -4478,7 +4481,7 @@
         <v>2.19</v>
       </c>
       <c r="L66">
-        <v>0.4255</v>
+        <v>0.5115</v>
       </c>
       <c r="M66">
         <v>1.757</v>
@@ -4493,19 +4496,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4519,7 +4522,7 @@
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F67">
         <v>1.0535</v>
@@ -4534,7 +4537,7 @@
         <v>2.19</v>
       </c>
       <c r="L67">
-        <v>0.4255</v>
+        <v>0.5115</v>
       </c>
       <c r="M67">
         <v>1.757</v>
@@ -4549,19 +4552,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4575,7 +4578,7 @@
         <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F68">
         <v>0.0555</v>
@@ -4590,7 +4593,7 @@
         <v>0.0895</v>
       </c>
       <c r="L68">
-        <v>0.06900000000000001</v>
+        <v>0.067</v>
       </c>
       <c r="M68">
         <v>0.0769</v>
@@ -4605,19 +4608,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4631,7 +4634,7 @@
         <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F69">
         <v>0.0555</v>
@@ -4646,7 +4649,7 @@
         <v>0.0895</v>
       </c>
       <c r="L69">
-        <v>0.06900000000000001</v>
+        <v>0.067</v>
       </c>
       <c r="M69">
         <v>0.0769</v>
@@ -4661,19 +4664,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4690,7 +4693,7 @@
         <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F70">
         <v>1.8</v>
@@ -4705,7 +4708,7 @@
         <v>2.92</v>
       </c>
       <c r="L70">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M70">
         <v>2.5</v>
@@ -4720,19 +4723,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4749,7 +4752,7 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F71">
         <v>0.037</v>
@@ -4764,7 +4767,7 @@
         <v>0.0675</v>
       </c>
       <c r="L71">
-        <v>0.0505</v>
+        <v>0.0475</v>
       </c>
       <c r="M71">
         <v>0.0573</v>
@@ -4779,19 +4782,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4808,7 +4811,7 @@
         <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F72">
         <v>0.037</v>
@@ -4823,7 +4826,7 @@
         <v>0.0675</v>
       </c>
       <c r="L72">
-        <v>0.0505</v>
+        <v>0.0475</v>
       </c>
       <c r="M72">
         <v>0.0573</v>
@@ -4838,19 +4841,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4867,16 +4870,16 @@
         <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F73">
         <v>225</v>
       </c>
       <c r="G73">
-        <v>504.546148885939</v>
+        <v>509.403569969</v>
       </c>
       <c r="H73">
-        <v>4811.76893315633</v>
+        <v>5103.21419813999</v>
       </c>
       <c r="I73">
         <v>1671</v>
@@ -4888,7 +4891,7 @@
         <v>38.3333333333333</v>
       </c>
       <c r="L73">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="M73">
         <v>784</v>
@@ -4903,19 +4906,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4932,16 +4935,16 @@
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F74">
         <v>225</v>
       </c>
       <c r="G74">
-        <v>504.546148885939</v>
+        <v>509.403569969</v>
       </c>
       <c r="H74">
-        <v>4811.76893315633</v>
+        <v>5103.21419813999</v>
       </c>
       <c r="I74">
         <v>1671</v>
@@ -4953,7 +4956,7 @@
         <v>38.3333333333333</v>
       </c>
       <c r="L74">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="M74">
         <v>784</v>
@@ -4968,19 +4971,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -4997,16 +5000,16 @@
         <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F75">
         <v>225</v>
       </c>
       <c r="G75">
-        <v>504.546148885939</v>
+        <v>509.403569969</v>
       </c>
       <c r="H75">
-        <v>4811.76893315633</v>
+        <v>5103.21419813999</v>
       </c>
       <c r="I75">
         <v>1671</v>
@@ -5018,7 +5021,7 @@
         <v>38.3333333333333</v>
       </c>
       <c r="L75">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="M75">
         <v>784</v>
@@ -5033,19 +5036,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U75" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5062,16 +5065,16 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F76">
         <v>225</v>
       </c>
       <c r="G76">
-        <v>504.546148885939</v>
+        <v>509.403569969</v>
       </c>
       <c r="H76">
-        <v>4811.76893315633</v>
+        <v>5103.21419813999</v>
       </c>
       <c r="I76">
         <v>1671</v>
@@ -5083,7 +5086,7 @@
         <v>38.3333333333333</v>
       </c>
       <c r="L76">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="M76">
         <v>784</v>
@@ -5098,19 +5101,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5127,22 +5130,22 @@
         <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F77">
-        <v>0.00484</v>
+        <v>0.00482</v>
       </c>
       <c r="G77">
-        <v>0.009184332373738001</v>
+        <v>0.0091806459353266</v>
       </c>
       <c r="H77">
         <v>0.0597117149162601</v>
       </c>
       <c r="I77">
-        <v>0.03008</v>
+        <v>0.03007</v>
       </c>
       <c r="L77">
-        <v>0.00398</v>
+        <v>0.00434</v>
       </c>
       <c r="M77">
         <v>0.01509</v>
@@ -5157,19 +5160,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5186,22 +5189,22 @@
         <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F78">
-        <v>0.00484</v>
+        <v>0.00482</v>
       </c>
       <c r="G78">
-        <v>0.009184332373738001</v>
+        <v>0.0091806459353266</v>
       </c>
       <c r="H78">
         <v>0.0597117149162601</v>
       </c>
       <c r="I78">
-        <v>0.03008</v>
+        <v>0.03007</v>
       </c>
       <c r="L78">
-        <v>0.00398</v>
+        <v>0.00434</v>
       </c>
       <c r="M78">
         <v>0.01509</v>
@@ -5216,19 +5219,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5245,13 +5248,13 @@
         <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F79">
         <v>0.707</v>
       </c>
       <c r="G79">
-        <v>0.783702911712043</v>
+        <v>0.783724742384572</v>
       </c>
       <c r="H79">
         <v>2.52</v>
@@ -5260,7 +5263,7 @@
         <v>1.77</v>
       </c>
       <c r="L79">
-        <v>0.116</v>
+        <v>0.1965</v>
       </c>
       <c r="M79">
         <v>1.448</v>
@@ -5275,19 +5278,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U79" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5304,13 +5307,13 @@
         <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F80">
         <v>0.707</v>
       </c>
       <c r="G80">
-        <v>0.783702911712043</v>
+        <v>0.783724742384572</v>
       </c>
       <c r="H80">
         <v>2.52</v>
@@ -5319,7 +5322,7 @@
         <v>1.77</v>
       </c>
       <c r="L80">
-        <v>0.116</v>
+        <v>0.1965</v>
       </c>
       <c r="M80">
         <v>1.448</v>
@@ -5334,19 +5337,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U80" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5360,13 +5363,13 @@
         <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F81">
         <v>0.715</v>
       </c>
       <c r="G81">
-        <v>0.80253131917452</v>
+        <v>0.8025351721023281</v>
       </c>
       <c r="H81">
         <v>2.54</v>
@@ -5375,7 +5378,7 @@
         <v>1.805</v>
       </c>
       <c r="L81">
-        <v>0.14</v>
+        <v>0.2175</v>
       </c>
       <c r="M81">
         <v>1.458</v>
@@ -5390,19 +5393,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5416,13 +5419,13 @@
         <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F82">
         <v>0.715</v>
       </c>
       <c r="G82">
-        <v>0.80253131917452</v>
+        <v>0.8025351721023281</v>
       </c>
       <c r="H82">
         <v>2.54</v>
@@ -5431,7 +5434,7 @@
         <v>1.805</v>
       </c>
       <c r="L82">
-        <v>0.14</v>
+        <v>0.2175</v>
       </c>
       <c r="M82">
         <v>1.458</v>
@@ -5446,19 +5449,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5472,7 +5475,7 @@
         <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F83">
         <v>0.945</v>
@@ -5487,7 +5490,7 @@
         <v>2.295</v>
       </c>
       <c r="L83">
-        <v>0.415</v>
+        <v>0.525</v>
       </c>
       <c r="M83">
         <v>1.8409</v>
@@ -5502,19 +5505,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5528,7 +5531,7 @@
         <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F84">
         <v>0.945</v>
@@ -5543,7 +5546,7 @@
         <v>2.295</v>
       </c>
       <c r="L84">
-        <v>0.415</v>
+        <v>0.525</v>
       </c>
       <c r="M84">
         <v>1.8409</v>
@@ -5558,19 +5561,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5584,7 +5587,7 @@
         <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F85">
         <v>0.054</v>
@@ -5599,7 +5602,7 @@
         <v>0.0895</v>
       </c>
       <c r="L85">
-        <v>0.066</v>
+        <v>0.0625</v>
       </c>
       <c r="M85">
         <v>0.075</v>
@@ -5614,19 +5617,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U85" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5640,7 +5643,7 @@
         <v>48</v>
       </c>
       <c r="E86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F86">
         <v>0.054</v>
@@ -5655,7 +5658,7 @@
         <v>0.0895</v>
       </c>
       <c r="L86">
-        <v>0.066</v>
+        <v>0.0625</v>
       </c>
       <c r="M86">
         <v>0.075</v>
@@ -5670,19 +5673,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5699,7 +5702,7 @@
         <v>49</v>
       </c>
       <c r="E87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F87">
         <v>2</v>
@@ -5714,7 +5717,7 @@
         <v>3.26</v>
       </c>
       <c r="L87">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="M87">
         <v>2.568</v>
@@ -5729,19 +5732,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5758,7 +5761,7 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F88">
         <v>0.038</v>
@@ -5773,7 +5776,7 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="L88">
-        <v>0.051</v>
+        <v>0.05</v>
       </c>
       <c r="M88">
         <v>0.05547</v>
@@ -5788,19 +5791,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5817,7 +5820,7 @@
         <v>49</v>
       </c>
       <c r="E89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F89">
         <v>0.038</v>
@@ -5832,7 +5835,7 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="L89">
-        <v>0.051</v>
+        <v>0.05</v>
       </c>
       <c r="M89">
         <v>0.05547</v>
@@ -5847,19 +5850,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5876,16 +5879,16 @@
         <v>49</v>
       </c>
       <c r="E90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F90">
         <v>200</v>
       </c>
       <c r="G90">
-        <v>443.555405646717</v>
+        <v>448.495155900678</v>
       </c>
       <c r="H90">
-        <v>4811.76893315633</v>
+        <v>5103.21419813999</v>
       </c>
       <c r="I90">
         <v>1610</v>
@@ -5897,7 +5900,7 @@
         <v>32.2033898305085</v>
       </c>
       <c r="L90">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="M90">
         <v>584</v>
@@ -5912,19 +5915,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5941,16 +5944,16 @@
         <v>49</v>
       </c>
       <c r="E91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F91">
         <v>200</v>
       </c>
       <c r="G91">
-        <v>443.555405646717</v>
+        <v>448.495155900678</v>
       </c>
       <c r="H91">
-        <v>4811.76893315633</v>
+        <v>5103.21419813999</v>
       </c>
       <c r="I91">
         <v>1610</v>
@@ -5962,7 +5965,7 @@
         <v>32.2033898305085</v>
       </c>
       <c r="L91">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="M91">
         <v>584</v>
@@ -5977,19 +5980,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U91" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6006,16 +6009,16 @@
         <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F92">
         <v>200</v>
       </c>
       <c r="G92">
-        <v>443.555405646717</v>
+        <v>448.495155900678</v>
       </c>
       <c r="H92">
-        <v>4811.76893315633</v>
+        <v>5103.21419813999</v>
       </c>
       <c r="I92">
         <v>1610</v>
@@ -6027,7 +6030,7 @@
         <v>32.2033898305085</v>
       </c>
       <c r="L92">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="M92">
         <v>584</v>
@@ -6042,19 +6045,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U92" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6071,16 +6074,16 @@
         <v>49</v>
       </c>
       <c r="E93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F93">
         <v>200</v>
       </c>
       <c r="G93">
-        <v>443.555405646717</v>
+        <v>448.495155900678</v>
       </c>
       <c r="H93">
-        <v>4811.76893315633</v>
+        <v>5103.21419813999</v>
       </c>
       <c r="I93">
         <v>1610</v>
@@ -6092,7 +6095,7 @@
         <v>32.2033898305085</v>
       </c>
       <c r="L93">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="M93">
         <v>584</v>
@@ -6107,19 +6110,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U93" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6136,28 +6139,28 @@
         <v>49</v>
       </c>
       <c r="E94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F94">
         <v>0.00545</v>
       </c>
       <c r="G94">
-        <v>0.0093047380689288</v>
+        <v>0.009301029280483099</v>
       </c>
       <c r="H94">
         <v>0.0597117149162601</v>
       </c>
       <c r="I94">
-        <v>0.03009</v>
+        <v>0.03008</v>
       </c>
       <c r="L94">
-        <v>0.00412</v>
+        <v>0.00478</v>
       </c>
       <c r="M94">
         <v>0.01418</v>
       </c>
       <c r="N94">
-        <v>0.02288</v>
+        <v>0.02286</v>
       </c>
       <c r="O94">
         <v>1878758.348</v>
@@ -6166,19 +6169,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U94" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6195,28 +6198,28 @@
         <v>49</v>
       </c>
       <c r="E95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F95">
         <v>0.00545</v>
       </c>
       <c r="G95">
-        <v>0.0093047380689288</v>
+        <v>0.009301029280483099</v>
       </c>
       <c r="H95">
         <v>0.0597117149162601</v>
       </c>
       <c r="I95">
-        <v>0.03009</v>
+        <v>0.03008</v>
       </c>
       <c r="L95">
-        <v>0.00412</v>
+        <v>0.00478</v>
       </c>
       <c r="M95">
         <v>0.01418</v>
       </c>
       <c r="N95">
-        <v>0.02288</v>
+        <v>0.02286</v>
       </c>
       <c r="O95">
         <v>1878758.348</v>
@@ -6225,19 +6228,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6254,13 +6257,13 @@
         <v>49</v>
       </c>
       <c r="E96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F96">
         <v>0.626</v>
       </c>
       <c r="G96">
-        <v>0.761362350012067</v>
+        <v>0.761384827026316</v>
       </c>
       <c r="H96">
         <v>2.52</v>
@@ -6269,7 +6272,7 @@
         <v>1.772</v>
       </c>
       <c r="L96">
-        <v>0.116</v>
+        <v>0.183</v>
       </c>
       <c r="M96">
         <v>1.4582</v>
@@ -6284,19 +6287,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U96" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6313,13 +6316,13 @@
         <v>49</v>
       </c>
       <c r="E97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F97">
         <v>0.626</v>
       </c>
       <c r="G97">
-        <v>0.761362350012067</v>
+        <v>0.761384827026316</v>
       </c>
       <c r="H97">
         <v>2.52</v>
@@ -6328,7 +6331,7 @@
         <v>1.772</v>
       </c>
       <c r="L97">
-        <v>0.116</v>
+        <v>0.183</v>
       </c>
       <c r="M97">
         <v>1.4582</v>
@@ -6343,19 +6346,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U97" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6369,13 +6372,13 @@
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F98">
         <v>0.635</v>
       </c>
       <c r="G98">
-        <v>0.779662306606473</v>
+        <v>0.779672562634668</v>
       </c>
       <c r="H98">
         <v>2.54</v>
@@ -6384,7 +6387,7 @@
         <v>1.8075</v>
       </c>
       <c r="L98">
-        <v>0.14</v>
+        <v>0.195</v>
       </c>
       <c r="M98">
         <v>1.4682</v>
@@ -6399,19 +6402,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U98" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6425,13 +6428,13 @@
         <v>49</v>
       </c>
       <c r="E99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F99">
         <v>0.635</v>
       </c>
       <c r="G99">
-        <v>0.779662306606473</v>
+        <v>0.779672562634668</v>
       </c>
       <c r="H99">
         <v>2.54</v>
@@ -6440,7 +6443,7 @@
         <v>1.8075</v>
       </c>
       <c r="L99">
-        <v>0.14</v>
+        <v>0.195</v>
       </c>
       <c r="M99">
         <v>1.4682</v>
@@ -6455,19 +6458,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U99" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6481,7 +6484,7 @@
         <v>49</v>
       </c>
       <c r="E100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F100">
         <v>0.83</v>
@@ -6496,7 +6499,7 @@
         <v>2.3095</v>
       </c>
       <c r="L100">
-        <v>0.37</v>
+        <v>0.49</v>
       </c>
       <c r="M100">
         <v>1.8341</v>
@@ -6511,19 +6514,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6537,7 +6540,7 @@
         <v>49</v>
       </c>
       <c r="E101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F101">
         <v>0.83</v>
@@ -6552,7 +6555,7 @@
         <v>2.3095</v>
       </c>
       <c r="L101">
-        <v>0.37</v>
+        <v>0.49</v>
       </c>
       <c r="M101">
         <v>1.8341</v>
@@ -6567,19 +6570,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U101" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6593,7 +6596,7 @@
         <v>49</v>
       </c>
       <c r="E102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F102">
         <v>0.054</v>
@@ -6608,7 +6611,7 @@
         <v>0.0864</v>
       </c>
       <c r="L102">
-        <v>0.062</v>
+        <v>0.061</v>
       </c>
       <c r="M102">
         <v>0.07041</v>
@@ -6623,19 +6626,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U102" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6649,7 +6652,7 @@
         <v>49</v>
       </c>
       <c r="E103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F103">
         <v>0.054</v>
@@ -6664,7 +6667,7 @@
         <v>0.0864</v>
       </c>
       <c r="L103">
-        <v>0.062</v>
+        <v>0.061</v>
       </c>
       <c r="M103">
         <v>0.07041</v>
@@ -6679,19 +6682,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U103" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6708,7 +6711,7 @@
         <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F104">
         <v>2</v>
@@ -6723,7 +6726,7 @@
         <v>3.95</v>
       </c>
       <c r="L104">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="M104">
         <v>2.815</v>
@@ -6738,19 +6741,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6767,7 +6770,7 @@
         <v>50</v>
       </c>
       <c r="E105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F105">
         <v>0.038</v>
@@ -6782,7 +6785,7 @@
         <v>0.06565</v>
       </c>
       <c r="L105">
-        <v>0.0525</v>
+        <v>0.05</v>
       </c>
       <c r="M105">
         <v>0.056</v>
@@ -6797,19 +6800,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6826,7 +6829,7 @@
         <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F106">
         <v>0.038</v>
@@ -6841,7 +6844,7 @@
         <v>0.06565</v>
       </c>
       <c r="L106">
-        <v>0.0525</v>
+        <v>0.05</v>
       </c>
       <c r="M106">
         <v>0.056</v>
@@ -6856,19 +6859,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6885,16 +6888,16 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F107">
         <v>180</v>
       </c>
       <c r="G107">
-        <v>418.92828700265</v>
+        <v>423.86803725661</v>
       </c>
       <c r="H107">
-        <v>4811.76893315633</v>
+        <v>5103.21419813999</v>
       </c>
       <c r="I107">
         <v>1975</v>
@@ -6906,7 +6909,7 @@
         <v>28.8135593220339</v>
       </c>
       <c r="L107">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M107">
         <v>440</v>
@@ -6921,19 +6924,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6950,16 +6953,16 @@
         <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F108">
         <v>180</v>
       </c>
       <c r="G108">
-        <v>418.92828700265</v>
+        <v>423.86803725661</v>
       </c>
       <c r="H108">
-        <v>4811.76893315633</v>
+        <v>5103.21419813999</v>
       </c>
       <c r="I108">
         <v>1975</v>
@@ -6971,7 +6974,7 @@
         <v>28.8135593220339</v>
       </c>
       <c r="L108">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M108">
         <v>440</v>
@@ -6986,19 +6989,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U108" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7015,16 +7018,16 @@
         <v>50</v>
       </c>
       <c r="E109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F109">
         <v>180</v>
       </c>
       <c r="G109">
-        <v>418.92828700265</v>
+        <v>423.86803725661</v>
       </c>
       <c r="H109">
-        <v>4811.76893315633</v>
+        <v>5103.21419813999</v>
       </c>
       <c r="I109">
         <v>1975</v>
@@ -7036,7 +7039,7 @@
         <v>28.8135593220339</v>
       </c>
       <c r="L109">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M109">
         <v>440</v>
@@ -7051,19 +7054,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U109" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7080,16 +7083,16 @@
         <v>50</v>
       </c>
       <c r="E110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F110">
         <v>180</v>
       </c>
       <c r="G110">
-        <v>418.92828700265</v>
+        <v>423.86803725661</v>
       </c>
       <c r="H110">
-        <v>4811.76893315633</v>
+        <v>5103.21419813999</v>
       </c>
       <c r="I110">
         <v>1975</v>
@@ -7101,7 +7104,7 @@
         <v>28.8135593220339</v>
       </c>
       <c r="L110">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M110">
         <v>440</v>
@@ -7116,19 +7119,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U110" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7145,28 +7148,28 @@
         <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F111">
         <v>0.00468</v>
       </c>
       <c r="G111">
-        <v>0.0097790026745066</v>
+        <v>0.009776227892858</v>
       </c>
       <c r="H111">
         <v>0.0730536907854253</v>
       </c>
       <c r="I111">
-        <v>0.04701</v>
+        <v>0.047</v>
       </c>
       <c r="L111">
-        <v>0.00456</v>
+        <v>0.00478</v>
       </c>
       <c r="M111">
         <v>0.01418</v>
       </c>
       <c r="N111">
-        <v>0.02288</v>
+        <v>0.02286</v>
       </c>
       <c r="O111">
         <v>1878758.348</v>
@@ -7175,19 +7178,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U111" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7204,28 +7207,28 @@
         <v>50</v>
       </c>
       <c r="E112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F112">
         <v>0.00468</v>
       </c>
       <c r="G112">
-        <v>0.0097790026745066</v>
+        <v>0.009776227892858</v>
       </c>
       <c r="H112">
         <v>0.0730536907854253</v>
       </c>
       <c r="I112">
-        <v>0.04701</v>
+        <v>0.047</v>
       </c>
       <c r="L112">
-        <v>0.00456</v>
+        <v>0.00478</v>
       </c>
       <c r="M112">
         <v>0.01418</v>
       </c>
       <c r="N112">
-        <v>0.02288</v>
+        <v>0.02286</v>
       </c>
       <c r="O112">
         <v>1878758.348</v>
@@ -7234,19 +7237,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U112" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7263,13 +7266,13 @@
         <v>50</v>
       </c>
       <c r="E113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F113">
         <v>0.495</v>
       </c>
       <c r="G113">
-        <v>0.724839599076054</v>
+        <v>0.724850662738433</v>
       </c>
       <c r="H113">
         <v>2.52</v>
@@ -7278,7 +7281,7 @@
         <v>1.9825</v>
       </c>
       <c r="L113">
-        <v>0.1235</v>
+        <v>0.135</v>
       </c>
       <c r="M113">
         <v>1.4582</v>
@@ -7293,19 +7296,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U113" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7322,13 +7325,13 @@
         <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F114">
         <v>0.495</v>
       </c>
       <c r="G114">
-        <v>0.724839599076054</v>
+        <v>0.724850662738433</v>
       </c>
       <c r="H114">
         <v>2.52</v>
@@ -7337,7 +7340,7 @@
         <v>1.9825</v>
       </c>
       <c r="L114">
-        <v>0.1235</v>
+        <v>0.135</v>
       </c>
       <c r="M114">
         <v>1.4582</v>
@@ -7352,19 +7355,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7378,13 +7381,13 @@
         <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F115">
         <v>0.51</v>
       </c>
       <c r="G115">
-        <v>0.743145710835775</v>
+        <v>0.743152048632301</v>
       </c>
       <c r="H115">
         <v>2.54</v>
@@ -7393,7 +7396,7 @@
         <v>2.00875</v>
       </c>
       <c r="L115">
-        <v>0.141</v>
+        <v>0.145</v>
       </c>
       <c r="M115">
         <v>1.4682</v>
@@ -7408,19 +7411,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U115" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7434,13 +7437,13 @@
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F116">
         <v>0.51</v>
       </c>
       <c r="G116">
-        <v>0.743145710835775</v>
+        <v>0.743152048632301</v>
       </c>
       <c r="H116">
         <v>2.54</v>
@@ -7449,7 +7452,7 @@
         <v>2.00875</v>
       </c>
       <c r="L116">
-        <v>0.141</v>
+        <v>0.145</v>
       </c>
       <c r="M116">
         <v>1.4682</v>
@@ -7464,19 +7467,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U116" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7490,7 +7493,7 @@
         <v>50</v>
       </c>
       <c r="E117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F117">
         <v>0.79</v>
@@ -7505,7 +7508,7 @@
         <v>2.4895</v>
       </c>
       <c r="L117">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="M117">
         <v>1.8341</v>
@@ -7520,19 +7523,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U117" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7546,7 +7549,7 @@
         <v>50</v>
       </c>
       <c r="E118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F118">
         <v>0.79</v>
@@ -7561,7 +7564,7 @@
         <v>2.4895</v>
       </c>
       <c r="L118">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="M118">
         <v>1.8341</v>
@@ -7576,19 +7579,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U118" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7602,7 +7605,7 @@
         <v>50</v>
       </c>
       <c r="E119" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F119">
         <v>0.054</v>
@@ -7617,7 +7620,7 @@
         <v>0.07795000000000001</v>
       </c>
       <c r="L119">
-        <v>0.06</v>
+        <v>0.059</v>
       </c>
       <c r="M119">
         <v>0.065</v>
@@ -7632,19 +7635,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U119" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7658,7 +7661,7 @@
         <v>50</v>
       </c>
       <c r="E120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F120">
         <v>0.054</v>
@@ -7673,7 +7676,7 @@
         <v>0.07795000000000001</v>
       </c>
       <c r="L120">
-        <v>0.06</v>
+        <v>0.059</v>
       </c>
       <c r="M120">
         <v>0.065</v>
@@ -7688,19 +7691,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U120" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7717,7 +7720,7 @@
         <v>51</v>
       </c>
       <c r="E121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F121">
         <v>2.1</v>
@@ -7732,7 +7735,7 @@
         <v>4.305</v>
       </c>
       <c r="L121">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M121">
         <v>3.147</v>
@@ -7747,19 +7750,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7776,7 +7779,7 @@
         <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F122">
         <v>0.038</v>
@@ -7791,7 +7794,7 @@
         <v>0.0663</v>
       </c>
       <c r="L122">
-        <v>0.05</v>
+        <v>0.0425</v>
       </c>
       <c r="M122">
         <v>0.055</v>
@@ -7806,19 +7809,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U122" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7835,7 +7838,7 @@
         <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F123">
         <v>0.038</v>
@@ -7850,7 +7853,7 @@
         <v>0.0663</v>
       </c>
       <c r="L123">
-        <v>0.05</v>
+        <v>0.0425</v>
       </c>
       <c r="M123">
         <v>0.055</v>
@@ -7865,19 +7868,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7894,16 +7897,16 @@
         <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F124">
         <v>160</v>
       </c>
       <c r="G124">
-        <v>486.609981283444</v>
+        <v>491.758143827017</v>
       </c>
       <c r="H124">
-        <v>4811.76893315633</v>
+        <v>5103.21419813999</v>
       </c>
       <c r="I124">
         <v>2265</v>
@@ -7915,10 +7918,10 @@
         <v>35.0877192982456</v>
       </c>
       <c r="L124">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="M124">
-        <v>612.5599999999999</v>
+        <v>612.884</v>
       </c>
       <c r="N124">
         <v>1700</v>
@@ -7930,19 +7933,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U124" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7959,16 +7962,16 @@
         <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F125">
         <v>160</v>
       </c>
       <c r="G125">
-        <v>486.609981283444</v>
+        <v>491.758143827017</v>
       </c>
       <c r="H125">
-        <v>4811.76893315633</v>
+        <v>5103.21419813999</v>
       </c>
       <c r="I125">
         <v>2265</v>
@@ -7980,10 +7983,10 @@
         <v>35.0877192982456</v>
       </c>
       <c r="L125">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="M125">
-        <v>612.5599999999999</v>
+        <v>612.884</v>
       </c>
       <c r="N125">
         <v>1700</v>
@@ -7995,19 +7998,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U125" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8024,16 +8027,16 @@
         <v>51</v>
       </c>
       <c r="E126" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F126">
         <v>160</v>
       </c>
       <c r="G126">
-        <v>486.609981283444</v>
+        <v>491.758143827017</v>
       </c>
       <c r="H126">
-        <v>4811.76893315633</v>
+        <v>5103.21419813999</v>
       </c>
       <c r="I126">
         <v>2265</v>
@@ -8045,10 +8048,10 @@
         <v>35.0877192982456</v>
       </c>
       <c r="L126">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="M126">
-        <v>612.5599999999999</v>
+        <v>612.884</v>
       </c>
       <c r="N126">
         <v>1700</v>
@@ -8060,19 +8063,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U126" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8089,16 +8092,16 @@
         <v>51</v>
       </c>
       <c r="E127" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F127">
         <v>160</v>
       </c>
       <c r="G127">
-        <v>486.609981283444</v>
+        <v>491.758143827017</v>
       </c>
       <c r="H127">
-        <v>4811.76893315633</v>
+        <v>5103.21419813999</v>
       </c>
       <c r="I127">
         <v>2265</v>
@@ -8110,10 +8113,10 @@
         <v>35.0877192982456</v>
       </c>
       <c r="L127">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="M127">
-        <v>612.5599999999999</v>
+        <v>612.884</v>
       </c>
       <c r="N127">
         <v>1700</v>
@@ -8125,19 +8128,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U127" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8154,13 +8157,13 @@
         <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F128">
         <v>0.00577</v>
       </c>
       <c r="G128">
-        <v>0.0103261462869458</v>
+        <v>0.0103240788983133</v>
       </c>
       <c r="H128">
         <v>0.0730536907854253</v>
@@ -8169,13 +8172,13 @@
         <v>0.05</v>
       </c>
       <c r="L128">
-        <v>0.00526</v>
+        <v>0.00574</v>
       </c>
       <c r="M128">
         <v>0.01393</v>
       </c>
       <c r="N128">
-        <v>0.02798</v>
+        <v>0.02796</v>
       </c>
       <c r="O128">
         <v>1878758.348</v>
@@ -8184,19 +8187,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U128" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8213,13 +8216,13 @@
         <v>51</v>
       </c>
       <c r="E129" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F129">
         <v>0.00577</v>
       </c>
       <c r="G129">
-        <v>0.0103261462869458</v>
+        <v>0.0103240788983133</v>
       </c>
       <c r="H129">
         <v>0.0730536907854253</v>
@@ -8228,13 +8231,13 @@
         <v>0.05</v>
       </c>
       <c r="L129">
-        <v>0.00526</v>
+        <v>0.00574</v>
       </c>
       <c r="M129">
         <v>0.01393</v>
       </c>
       <c r="N129">
-        <v>0.02798</v>
+        <v>0.02796</v>
       </c>
       <c r="O129">
         <v>1878758.348</v>
@@ -8243,19 +8246,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U129" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8272,13 +8275,13 @@
         <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F130">
         <v>0.445</v>
       </c>
       <c r="G130">
-        <v>0.588869058692758</v>
+        <v>0.588880510553817</v>
       </c>
       <c r="H130">
         <v>2.14</v>
@@ -8287,7 +8290,7 @@
         <v>1.743</v>
       </c>
       <c r="L130">
-        <v>0.121</v>
+        <v>0.1345</v>
       </c>
       <c r="M130">
         <v>1.1067</v>
@@ -8302,19 +8305,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U130" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8331,13 +8334,13 @@
         <v>51</v>
       </c>
       <c r="E131" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F131">
         <v>0.445</v>
       </c>
       <c r="G131">
-        <v>0.588869058692758</v>
+        <v>0.588880510553817</v>
       </c>
       <c r="H131">
         <v>2.14</v>
@@ -8346,7 +8349,7 @@
         <v>1.743</v>
       </c>
       <c r="L131">
-        <v>0.121</v>
+        <v>0.1345</v>
       </c>
       <c r="M131">
         <v>1.1067</v>
@@ -8361,19 +8364,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T131" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U131" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8387,13 +8390,13 @@
         <v>51</v>
       </c>
       <c r="E132" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F132">
         <v>0.462</v>
       </c>
       <c r="G132">
-        <v>0.6073087182335209</v>
+        <v>0.607315278408873</v>
       </c>
       <c r="H132">
         <v>2.155</v>
@@ -8402,7 +8405,7 @@
         <v>1.7695</v>
       </c>
       <c r="L132">
-        <v>0.14</v>
+        <v>0.1435</v>
       </c>
       <c r="M132">
         <v>1.11455</v>
@@ -8417,19 +8420,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U132" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8443,13 +8446,13 @@
         <v>51</v>
       </c>
       <c r="E133" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F133">
         <v>0.462</v>
       </c>
       <c r="G133">
-        <v>0.6073087182335209</v>
+        <v>0.607315278408873</v>
       </c>
       <c r="H133">
         <v>2.155</v>
@@ -8458,7 +8461,7 @@
         <v>1.7695</v>
       </c>
       <c r="L133">
-        <v>0.14</v>
+        <v>0.1435</v>
       </c>
       <c r="M133">
         <v>1.11455</v>
@@ -8473,19 +8476,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U133" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8499,7 +8502,7 @@
         <v>51</v>
       </c>
       <c r="E134" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F134">
         <v>0.67</v>
@@ -8514,7 +8517,7 @@
         <v>2.094</v>
       </c>
       <c r="L134">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="M134">
         <v>1.4243</v>
@@ -8529,19 +8532,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U134" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8555,7 +8558,7 @@
         <v>51</v>
       </c>
       <c r="E135" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F135">
         <v>0.67</v>
@@ -8570,7 +8573,7 @@
         <v>2.094</v>
       </c>
       <c r="L135">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="M135">
         <v>1.4243</v>
@@ -8585,19 +8588,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U135" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8611,7 +8614,7 @@
         <v>51</v>
       </c>
       <c r="E136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F136">
         <v>0.051</v>
@@ -8626,7 +8629,7 @@
         <v>0.07195</v>
       </c>
       <c r="L136">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
       <c r="M136">
         <v>0.065</v>
@@ -8641,19 +8644,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q136" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U136" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8667,7 +8670,7 @@
         <v>51</v>
       </c>
       <c r="E137" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F137">
         <v>0.051</v>
@@ -8682,7 +8685,7 @@
         <v>0.07195</v>
       </c>
       <c r="L137">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
       <c r="M137">
         <v>0.065</v>
@@ -8697,19 +8700,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q137" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U137" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -8726,7 +8729,7 @@
         <v>52</v>
       </c>
       <c r="E138" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F138">
         <v>2.3</v>
@@ -8741,7 +8744,7 @@
         <v>4.335</v>
       </c>
       <c r="L138">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M138">
         <v>3.283</v>
@@ -8756,19 +8759,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U138" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -8785,7 +8788,7 @@
         <v>52</v>
       </c>
       <c r="E139" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F139">
         <v>0.032</v>
@@ -8800,7 +8803,7 @@
         <v>0.0663</v>
       </c>
       <c r="L139">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
       <c r="M139">
         <v>0.05381</v>
@@ -8815,19 +8818,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U139" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -8844,7 +8847,7 @@
         <v>52</v>
       </c>
       <c r="E140" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F140">
         <v>0.032</v>
@@ -8859,7 +8862,7 @@
         <v>0.0663</v>
       </c>
       <c r="L140">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
       <c r="M140">
         <v>0.05381</v>
@@ -8874,19 +8877,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q140" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U140" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -8903,13 +8906,13 @@
         <v>52</v>
       </c>
       <c r="E141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F141">
-        <v>187</v>
+        <v>186.8</v>
       </c>
       <c r="G141">
-        <v>443.298245614035</v>
+        <v>443.343859649123</v>
       </c>
       <c r="H141">
         <v>3300</v>
@@ -8924,10 +8927,10 @@
         <v>36.8421052631579</v>
       </c>
       <c r="L141">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="M141">
-        <v>612.5599999999999</v>
+        <v>612.884</v>
       </c>
       <c r="N141">
         <v>1670</v>
@@ -8939,19 +8942,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U141" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -8968,13 +8971,13 @@
         <v>52</v>
       </c>
       <c r="E142" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F142">
-        <v>187</v>
+        <v>186.8</v>
       </c>
       <c r="G142">
-        <v>443.298245614035</v>
+        <v>443.343859649123</v>
       </c>
       <c r="H142">
         <v>3300</v>
@@ -8989,10 +8992,10 @@
         <v>36.8421052631579</v>
       </c>
       <c r="L142">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="M142">
-        <v>612.5599999999999</v>
+        <v>612.884</v>
       </c>
       <c r="N142">
         <v>1670</v>
@@ -9004,19 +9007,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U142" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -9033,13 +9036,13 @@
         <v>52</v>
       </c>
       <c r="E143" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F143">
-        <v>187</v>
+        <v>186.8</v>
       </c>
       <c r="G143">
-        <v>443.298245614035</v>
+        <v>443.343859649123</v>
       </c>
       <c r="H143">
         <v>3300</v>
@@ -9054,10 +9057,10 @@
         <v>36.8421052631579</v>
       </c>
       <c r="L143">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="M143">
-        <v>612.5599999999999</v>
+        <v>612.884</v>
       </c>
       <c r="N143">
         <v>1670</v>
@@ -9069,19 +9072,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q143" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R143" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U143" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9098,13 +9101,13 @@
         <v>52</v>
       </c>
       <c r="E144" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F144">
-        <v>187</v>
+        <v>186.8</v>
       </c>
       <c r="G144">
-        <v>443.298245614035</v>
+        <v>443.343859649123</v>
       </c>
       <c r="H144">
         <v>3300</v>
@@ -9119,10 +9122,10 @@
         <v>36.8421052631579</v>
       </c>
       <c r="L144">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="M144">
-        <v>612.5599999999999</v>
+        <v>612.884</v>
       </c>
       <c r="N144">
         <v>1670</v>
@@ -9134,19 +9137,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U144" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9163,22 +9166,22 @@
         <v>52</v>
       </c>
       <c r="E145" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F145">
         <v>0.00685</v>
       </c>
       <c r="G145">
-        <v>0.0102605221859975</v>
+        <v>0.0102594563834389</v>
       </c>
       <c r="H145">
         <v>0.0730536907854253</v>
       </c>
       <c r="I145">
-        <v>0.02965</v>
+        <v>0.02961</v>
       </c>
       <c r="L145">
-        <v>0.00559</v>
+        <v>0.00623</v>
       </c>
       <c r="M145">
         <v>0.01467</v>
@@ -9193,19 +9196,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R145" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T145" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U145" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9222,22 +9225,22 @@
         <v>52</v>
       </c>
       <c r="E146" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F146">
         <v>0.00685</v>
       </c>
       <c r="G146">
-        <v>0.0102605221859975</v>
+        <v>0.0102594563834389</v>
       </c>
       <c r="H146">
         <v>0.0730536907854253</v>
       </c>
       <c r="I146">
-        <v>0.02965</v>
+        <v>0.02961</v>
       </c>
       <c r="L146">
-        <v>0.00559</v>
+        <v>0.00623</v>
       </c>
       <c r="M146">
         <v>0.01467</v>
@@ -9252,19 +9255,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T146" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U146" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9281,13 +9284,13 @@
         <v>52</v>
       </c>
       <c r="E147" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F147">
         <v>0.495</v>
       </c>
       <c r="G147">
-        <v>0.612921690271705</v>
+        <v>0.612933142132764</v>
       </c>
       <c r="H147">
         <v>2.14</v>
@@ -9296,7 +9299,7 @@
         <v>1.743</v>
       </c>
       <c r="L147">
-        <v>0.126</v>
+        <v>0.188</v>
       </c>
       <c r="M147">
         <v>0.9933</v>
@@ -9311,19 +9314,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q147" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R147" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S147" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U147" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9340,13 +9343,13 @@
         <v>52</v>
       </c>
       <c r="E148" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F148">
         <v>0.495</v>
       </c>
       <c r="G148">
-        <v>0.612921690271705</v>
+        <v>0.612933142132764</v>
       </c>
       <c r="H148">
         <v>2.14</v>
@@ -9355,7 +9358,7 @@
         <v>1.743</v>
       </c>
       <c r="L148">
-        <v>0.126</v>
+        <v>0.188</v>
       </c>
       <c r="M148">
         <v>0.9933</v>
@@ -9370,19 +9373,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q148" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U148" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9396,13 +9399,13 @@
         <v>52</v>
       </c>
       <c r="E149" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F149">
         <v>0.515</v>
       </c>
       <c r="G149">
-        <v>0.630817490163346</v>
+        <v>0.630824050338697</v>
       </c>
       <c r="H149">
         <v>2.155</v>
@@ -9411,7 +9414,7 @@
         <v>1.7695</v>
       </c>
       <c r="L149">
-        <v>0.142</v>
+        <v>0.213</v>
       </c>
       <c r="M149">
         <v>1.01316</v>
@@ -9426,19 +9429,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q149" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R149" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U149" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -9452,13 +9455,13 @@
         <v>52</v>
       </c>
       <c r="E150" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F150">
         <v>0.515</v>
       </c>
       <c r="G150">
-        <v>0.630817490163346</v>
+        <v>0.630824050338697</v>
       </c>
       <c r="H150">
         <v>2.155</v>
@@ -9467,7 +9470,7 @@
         <v>1.7695</v>
       </c>
       <c r="L150">
-        <v>0.142</v>
+        <v>0.213</v>
       </c>
       <c r="M150">
         <v>1.01316</v>
@@ -9482,19 +9485,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S150" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U150" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9508,7 +9511,7 @@
         <v>52</v>
       </c>
       <c r="E151" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F151">
         <v>0.78</v>
@@ -9523,7 +9526,7 @@
         <v>1.9655</v>
       </c>
       <c r="L151">
-        <v>0.34</v>
+        <v>0.495</v>
       </c>
       <c r="M151">
         <v>1.3429</v>
@@ -9538,19 +9541,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q151" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R151" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S151" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T151" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U151" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9564,7 +9567,7 @@
         <v>52</v>
       </c>
       <c r="E152" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F152">
         <v>0.78</v>
@@ -9579,7 +9582,7 @@
         <v>1.9655</v>
       </c>
       <c r="L152">
-        <v>0.34</v>
+        <v>0.495</v>
       </c>
       <c r="M152">
         <v>1.3429</v>
@@ -9594,19 +9597,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q152" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U152" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -9620,7 +9623,7 @@
         <v>52</v>
       </c>
       <c r="E153" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F153">
         <v>0.049</v>
@@ -9635,7 +9638,7 @@
         <v>0.0769</v>
       </c>
       <c r="L153">
-        <v>0.055</v>
+        <v>0.0535</v>
       </c>
       <c r="M153">
         <v>0.065</v>
@@ -9650,19 +9653,19 @@
         <v>5554292.094</v>
       </c>
       <c r="Q153" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R153" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S153" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U153" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -9676,7 +9679,7 @@
         <v>52</v>
       </c>
       <c r="E154" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F154">
         <v>0.049</v>
@@ -9691,7 +9694,7 @@
         <v>0.0769</v>
       </c>
       <c r="L154">
-        <v>0.055</v>
+        <v>0.0535</v>
       </c>
       <c r="M154">
         <v>0.065</v>
@@ -9706,19 +9709,1028 @@
         <v>5554292.094</v>
       </c>
       <c r="Q154" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T154" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U154" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21">
+      <c r="A155" t="s">
+        <v>21</v>
+      </c>
+      <c r="B155" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" t="s">
+        <v>39</v>
+      </c>
+      <c r="D155" t="s">
+        <v>53</v>
+      </c>
+      <c r="E155" t="s">
+        <v>54</v>
+      </c>
+      <c r="F155">
+        <v>2.3</v>
+      </c>
+      <c r="G155">
+        <v>2.3942</v>
+      </c>
+      <c r="H155">
+        <v>4.6</v>
+      </c>
+      <c r="I155">
+        <v>4.35</v>
+      </c>
+      <c r="L155">
+        <v>2.85</v>
+      </c>
+      <c r="M155">
+        <v>3.8</v>
+      </c>
+      <c r="N155">
+        <v>4.1</v>
+      </c>
+      <c r="O155">
+        <v>1878758.348</v>
+      </c>
+      <c r="P155">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>55</v>
+      </c>
+      <c r="R155" t="s">
+        <v>56</v>
+      </c>
+      <c r="S155" t="s">
+        <v>57</v>
+      </c>
+      <c r="T155" t="s">
+        <v>58</v>
+      </c>
+      <c r="U155" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21">
+      <c r="A156" t="s">
+        <v>21</v>
+      </c>
+      <c r="B156" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" t="s">
+        <v>40</v>
+      </c>
+      <c r="D156" t="s">
+        <v>53</v>
+      </c>
+      <c r="E156" t="s">
+        <v>54</v>
+      </c>
+      <c r="F156">
+        <v>0.03</v>
+      </c>
+      <c r="G156">
+        <v>0.0347017543859649</v>
+      </c>
+      <c r="H156">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="I156">
+        <v>0.0663</v>
+      </c>
+      <c r="L156">
+        <v>0.039</v>
+      </c>
+      <c r="M156">
+        <v>0.052</v>
+      </c>
+      <c r="N156">
+        <v>0.05788</v>
+      </c>
+      <c r="O156">
+        <v>1878758.348</v>
+      </c>
+      <c r="P156">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>55</v>
+      </c>
+      <c r="R156" t="s">
+        <v>56</v>
+      </c>
+      <c r="S156" t="s">
+        <v>57</v>
+      </c>
+      <c r="T156" t="s">
+        <v>58</v>
+      </c>
+      <c r="U156" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21">
+      <c r="A157" t="s">
+        <v>21</v>
+      </c>
+      <c r="B157" t="s">
+        <v>24</v>
+      </c>
+      <c r="C157" t="s">
+        <v>40</v>
+      </c>
+      <c r="D157" t="s">
+        <v>53</v>
+      </c>
+      <c r="E157" t="s">
+        <v>54</v>
+      </c>
+      <c r="F157">
+        <v>0.03</v>
+      </c>
+      <c r="G157">
+        <v>0.0347017543859649</v>
+      </c>
+      <c r="H157">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="I157">
+        <v>0.0663</v>
+      </c>
+      <c r="L157">
+        <v>0.039</v>
+      </c>
+      <c r="M157">
+        <v>0.052</v>
+      </c>
+      <c r="N157">
+        <v>0.05788</v>
+      </c>
+      <c r="O157">
+        <v>1878758.348</v>
+      </c>
+      <c r="P157">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>55</v>
+      </c>
+      <c r="R157" t="s">
+        <v>56</v>
+      </c>
+      <c r="S157" t="s">
+        <v>57</v>
+      </c>
+      <c r="T157" t="s">
+        <v>58</v>
+      </c>
+      <c r="U157" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21">
+      <c r="A158" t="s">
+        <v>21</v>
+      </c>
+      <c r="B158" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158" t="s">
+        <v>43</v>
+      </c>
+      <c r="D158" t="s">
+        <v>53</v>
+      </c>
+      <c r="E158" t="s">
+        <v>54</v>
+      </c>
+      <c r="F158">
+        <v>154.4</v>
+      </c>
+      <c r="G158">
+        <v>430.289285714286</v>
+      </c>
+      <c r="H158">
+        <v>3300</v>
+      </c>
+      <c r="I158">
+        <v>2270</v>
+      </c>
+      <c r="J158">
+        <v>16.0714285714286</v>
+      </c>
+      <c r="K158">
+        <v>33.9285714285714</v>
+      </c>
+      <c r="L158">
+        <v>155.2</v>
+      </c>
+      <c r="M158">
+        <v>469.824</v>
+      </c>
+      <c r="N158">
+        <v>1710</v>
+      </c>
+      <c r="O158">
+        <v>1878758.348</v>
+      </c>
+      <c r="P158">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>55</v>
+      </c>
+      <c r="R158" t="s">
+        <v>56</v>
+      </c>
+      <c r="S158" t="s">
+        <v>57</v>
+      </c>
+      <c r="T158" t="s">
+        <v>58</v>
+      </c>
+      <c r="U158" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21">
+      <c r="A159" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" t="s">
+        <v>26</v>
+      </c>
+      <c r="C159" t="s">
+        <v>43</v>
+      </c>
+      <c r="D159" t="s">
+        <v>53</v>
+      </c>
+      <c r="E159" t="s">
+        <v>54</v>
+      </c>
+      <c r="F159">
+        <v>154.4</v>
+      </c>
+      <c r="G159">
+        <v>430.289285714286</v>
+      </c>
+      <c r="H159">
+        <v>3300</v>
+      </c>
+      <c r="I159">
+        <v>2270</v>
+      </c>
+      <c r="J159">
+        <v>16.0714285714286</v>
+      </c>
+      <c r="K159">
+        <v>33.9285714285714</v>
+      </c>
+      <c r="L159">
+        <v>155.2</v>
+      </c>
+      <c r="M159">
+        <v>469.824</v>
+      </c>
+      <c r="N159">
+        <v>1710</v>
+      </c>
+      <c r="O159">
+        <v>1878758.348</v>
+      </c>
+      <c r="P159">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>55</v>
+      </c>
+      <c r="R159" t="s">
+        <v>56</v>
+      </c>
+      <c r="S159" t="s">
+        <v>57</v>
+      </c>
+      <c r="T159" t="s">
+        <v>58</v>
+      </c>
+      <c r="U159" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21">
+      <c r="A160" t="s">
+        <v>21</v>
+      </c>
+      <c r="B160" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160" t="s">
+        <v>40</v>
+      </c>
+      <c r="D160" t="s">
+        <v>53</v>
+      </c>
+      <c r="E160" t="s">
+        <v>54</v>
+      </c>
+      <c r="F160">
+        <v>154.4</v>
+      </c>
+      <c r="G160">
+        <v>430.289285714286</v>
+      </c>
+      <c r="H160">
+        <v>3300</v>
+      </c>
+      <c r="I160">
+        <v>2270</v>
+      </c>
+      <c r="J160">
+        <v>16.0714285714286</v>
+      </c>
+      <c r="K160">
+        <v>33.9285714285714</v>
+      </c>
+      <c r="L160">
+        <v>155.2</v>
+      </c>
+      <c r="M160">
+        <v>469.824</v>
+      </c>
+      <c r="N160">
+        <v>1710</v>
+      </c>
+      <c r="O160">
+        <v>1878758.348</v>
+      </c>
+      <c r="P160">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>55</v>
+      </c>
+      <c r="R160" t="s">
+        <v>56</v>
+      </c>
+      <c r="S160" t="s">
+        <v>57</v>
+      </c>
+      <c r="T160" t="s">
+        <v>58</v>
+      </c>
+      <c r="U160" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21">
+      <c r="A161" t="s">
+        <v>21</v>
+      </c>
+      <c r="B161" t="s">
+        <v>28</v>
+      </c>
+      <c r="C161" t="s">
+        <v>41</v>
+      </c>
+      <c r="D161" t="s">
+        <v>53</v>
+      </c>
+      <c r="E161" t="s">
+        <v>54</v>
+      </c>
+      <c r="F161">
+        <v>154.4</v>
+      </c>
+      <c r="G161">
+        <v>430.289285714286</v>
+      </c>
+      <c r="H161">
+        <v>3300</v>
+      </c>
+      <c r="I161">
+        <v>2270</v>
+      </c>
+      <c r="J161">
+        <v>16.0714285714286</v>
+      </c>
+      <c r="K161">
+        <v>33.9285714285714</v>
+      </c>
+      <c r="L161">
+        <v>155.2</v>
+      </c>
+      <c r="M161">
+        <v>469.824</v>
+      </c>
+      <c r="N161">
+        <v>1710</v>
+      </c>
+      <c r="O161">
+        <v>1878758.348</v>
+      </c>
+      <c r="P161">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>55</v>
+      </c>
+      <c r="R161" t="s">
+        <v>56</v>
+      </c>
+      <c r="S161" t="s">
+        <v>57</v>
+      </c>
+      <c r="T161" t="s">
+        <v>58</v>
+      </c>
+      <c r="U161" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21">
+      <c r="A162" t="s">
+        <v>21</v>
+      </c>
+      <c r="B162" t="s">
+        <v>29</v>
+      </c>
+      <c r="C162" t="s">
+        <v>39</v>
+      </c>
+      <c r="D162" t="s">
+        <v>53</v>
+      </c>
+      <c r="E162" t="s">
+        <v>54</v>
+      </c>
+      <c r="F162">
+        <v>0.00601</v>
+      </c>
+      <c r="G162">
+        <v>0.008452747917864101</v>
+      </c>
+      <c r="H162">
+        <v>0.0730536907854253</v>
+      </c>
+      <c r="I162">
+        <v>0.02542</v>
+      </c>
+      <c r="L162">
+        <v>0.00511</v>
+      </c>
+      <c r="M162">
+        <v>0.01273</v>
+      </c>
+      <c r="N162">
+        <v>0.02176</v>
+      </c>
+      <c r="O162">
+        <v>1878758.348</v>
+      </c>
+      <c r="P162">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>55</v>
+      </c>
+      <c r="R162" t="s">
+        <v>56</v>
+      </c>
+      <c r="S162" t="s">
+        <v>57</v>
+      </c>
+      <c r="T162" t="s">
+        <v>58</v>
+      </c>
+      <c r="U162" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21">
+      <c r="A163" t="s">
+        <v>21</v>
+      </c>
+      <c r="B163" t="s">
+        <v>30</v>
+      </c>
+      <c r="C163" t="s">
+        <v>39</v>
+      </c>
+      <c r="D163" t="s">
+        <v>53</v>
+      </c>
+      <c r="E163" t="s">
+        <v>54</v>
+      </c>
+      <c r="F163">
+        <v>0.00601</v>
+      </c>
+      <c r="G163">
+        <v>0.008452747917864101</v>
+      </c>
+      <c r="H163">
+        <v>0.0730536907854253</v>
+      </c>
+      <c r="I163">
+        <v>0.02542</v>
+      </c>
+      <c r="L163">
+        <v>0.00511</v>
+      </c>
+      <c r="M163">
+        <v>0.01273</v>
+      </c>
+      <c r="N163">
+        <v>0.02176</v>
+      </c>
+      <c r="O163">
+        <v>1878758.348</v>
+      </c>
+      <c r="P163">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>55</v>
+      </c>
+      <c r="R163" t="s">
+        <v>56</v>
+      </c>
+      <c r="S163" t="s">
+        <v>57</v>
+      </c>
+      <c r="T163" t="s">
+        <v>58</v>
+      </c>
+      <c r="U163" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21">
+      <c r="A164" t="s">
+        <v>21</v>
+      </c>
+      <c r="B164" t="s">
+        <v>31</v>
+      </c>
+      <c r="C164" t="s">
+        <v>42</v>
+      </c>
+      <c r="D164" t="s">
+        <v>53</v>
+      </c>
+      <c r="E164" t="s">
+        <v>54</v>
+      </c>
+      <c r="F164">
+        <v>0.488</v>
+      </c>
+      <c r="G164">
+        <v>0.56502086143101</v>
+      </c>
+      <c r="H164">
+        <v>2.14</v>
+      </c>
+      <c r="I164">
+        <v>1.5045</v>
+      </c>
+      <c r="L164">
+        <v>0.178</v>
+      </c>
+      <c r="M164">
+        <v>0.969</v>
+      </c>
+      <c r="N164">
+        <v>1.2882</v>
+      </c>
+      <c r="O164">
+        <v>1878758.348</v>
+      </c>
+      <c r="P164">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>55</v>
+      </c>
+      <c r="R164" t="s">
+        <v>56</v>
+      </c>
+      <c r="S164" t="s">
+        <v>57</v>
+      </c>
+      <c r="T164" t="s">
+        <v>58</v>
+      </c>
+      <c r="U164" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21">
+      <c r="A165" t="s">
+        <v>21</v>
+      </c>
+      <c r="B165" t="s">
+        <v>32</v>
+      </c>
+      <c r="C165" t="s">
+        <v>39</v>
+      </c>
+      <c r="D165" t="s">
+        <v>53</v>
+      </c>
+      <c r="E165" t="s">
+        <v>54</v>
+      </c>
+      <c r="F165">
+        <v>0.488</v>
+      </c>
+      <c r="G165">
+        <v>0.56502086143101</v>
+      </c>
+      <c r="H165">
+        <v>2.14</v>
+      </c>
+      <c r="I165">
+        <v>1.5045</v>
+      </c>
+      <c r="L165">
+        <v>0.178</v>
+      </c>
+      <c r="M165">
+        <v>0.969</v>
+      </c>
+      <c r="N165">
+        <v>1.2882</v>
+      </c>
+      <c r="O165">
+        <v>1878758.348</v>
+      </c>
+      <c r="P165">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>55</v>
+      </c>
+      <c r="R165" t="s">
+        <v>56</v>
+      </c>
+      <c r="S165" t="s">
+        <v>57</v>
+      </c>
+      <c r="T165" t="s">
+        <v>58</v>
+      </c>
+      <c r="U165" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21">
+      <c r="A166" t="s">
+        <v>21</v>
+      </c>
+      <c r="B166" t="s">
+        <v>33</v>
+      </c>
+      <c r="D166" t="s">
+        <v>53</v>
+      </c>
+      <c r="E166" t="s">
+        <v>54</v>
+      </c>
+      <c r="F166">
+        <v>0.476</v>
+      </c>
+      <c r="G166">
+        <v>0.5800433485843109</v>
+      </c>
+      <c r="H166">
+        <v>2.155</v>
+      </c>
+      <c r="I166">
+        <v>1.52905</v>
+      </c>
+      <c r="L166">
+        <v>0.186</v>
+      </c>
+      <c r="M166">
+        <v>0.98286</v>
+      </c>
+      <c r="N166">
+        <v>1.31238</v>
+      </c>
+      <c r="O166">
+        <v>1878758.348</v>
+      </c>
+      <c r="P166">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>55</v>
+      </c>
+      <c r="R166" t="s">
+        <v>56</v>
+      </c>
+      <c r="S166" t="s">
+        <v>57</v>
+      </c>
+      <c r="T166" t="s">
+        <v>58</v>
+      </c>
+      <c r="U166" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21">
+      <c r="A167" t="s">
+        <v>21</v>
+      </c>
+      <c r="B167" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167" t="s">
+        <v>53</v>
+      </c>
+      <c r="E167" t="s">
+        <v>54</v>
+      </c>
+      <c r="F167">
+        <v>0.476</v>
+      </c>
+      <c r="G167">
+        <v>0.5800433485843109</v>
+      </c>
+      <c r="H167">
+        <v>2.155</v>
+      </c>
+      <c r="I167">
+        <v>1.52905</v>
+      </c>
+      <c r="L167">
+        <v>0.186</v>
+      </c>
+      <c r="M167">
+        <v>0.98286</v>
+      </c>
+      <c r="N167">
+        <v>1.31238</v>
+      </c>
+      <c r="O167">
+        <v>1878758.348</v>
+      </c>
+      <c r="P167">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>55</v>
+      </c>
+      <c r="R167" t="s">
+        <v>56</v>
+      </c>
+      <c r="S167" t="s">
+        <v>57</v>
+      </c>
+      <c r="T167" t="s">
+        <v>58</v>
+      </c>
+      <c r="U167" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21">
+      <c r="A168" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" t="s">
+        <v>35</v>
+      </c>
+      <c r="D168" t="s">
+        <v>53</v>
+      </c>
+      <c r="E168" t="s">
+        <v>54</v>
+      </c>
+      <c r="F168">
+        <v>0.77</v>
+      </c>
+      <c r="G168">
+        <v>0.808421052631579</v>
+      </c>
+      <c r="H168">
+        <v>2.53</v>
+      </c>
+      <c r="I168">
+        <v>1.736</v>
+      </c>
+      <c r="L168">
+        <v>0.435</v>
+      </c>
+      <c r="M168">
+        <v>1.2348</v>
+      </c>
+      <c r="N168">
+        <v>1.6464</v>
+      </c>
+      <c r="O168">
+        <v>1878758.348</v>
+      </c>
+      <c r="P168">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>55</v>
+      </c>
+      <c r="R168" t="s">
+        <v>56</v>
+      </c>
+      <c r="S168" t="s">
+        <v>57</v>
+      </c>
+      <c r="T168" t="s">
+        <v>58</v>
+      </c>
+      <c r="U168" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21">
+      <c r="A169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" t="s">
+        <v>36</v>
+      </c>
+      <c r="D169" t="s">
+        <v>53</v>
+      </c>
+      <c r="E169" t="s">
+        <v>54</v>
+      </c>
+      <c r="F169">
+        <v>0.77</v>
+      </c>
+      <c r="G169">
+        <v>0.808421052631579</v>
+      </c>
+      <c r="H169">
+        <v>2.53</v>
+      </c>
+      <c r="I169">
+        <v>1.736</v>
+      </c>
+      <c r="L169">
+        <v>0.435</v>
+      </c>
+      <c r="M169">
+        <v>1.2348</v>
+      </c>
+      <c r="N169">
+        <v>1.6464</v>
+      </c>
+      <c r="O169">
+        <v>1878758.348</v>
+      </c>
+      <c r="P169">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>55</v>
+      </c>
+      <c r="R169" t="s">
+        <v>56</v>
+      </c>
+      <c r="S169" t="s">
+        <v>57</v>
+      </c>
+      <c r="T169" t="s">
+        <v>58</v>
+      </c>
+      <c r="U169" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21">
+      <c r="A170" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170" t="s">
+        <v>37</v>
+      </c>
+      <c r="D170" t="s">
+        <v>53</v>
+      </c>
+      <c r="E170" t="s">
+        <v>54</v>
+      </c>
+      <c r="F170">
+        <v>0.049</v>
+      </c>
+      <c r="G170">
+        <v>0.0516842105263158</v>
+      </c>
+      <c r="H170">
+        <v>0.181</v>
+      </c>
+      <c r="I170">
+        <v>0.07829999999999999</v>
+      </c>
+      <c r="L170">
+        <v>0.053</v>
+      </c>
+      <c r="M170">
+        <v>0.065</v>
+      </c>
+      <c r="N170">
+        <v>0.06994</v>
+      </c>
+      <c r="O170">
+        <v>1878758.348</v>
+      </c>
+      <c r="P170">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>55</v>
+      </c>
+      <c r="R170" t="s">
+        <v>56</v>
+      </c>
+      <c r="S170" t="s">
+        <v>57</v>
+      </c>
+      <c r="T170" t="s">
+        <v>58</v>
+      </c>
+      <c r="U170" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21">
+      <c r="A171" t="s">
+        <v>21</v>
+      </c>
+      <c r="B171" t="s">
+        <v>38</v>
+      </c>
+      <c r="D171" t="s">
+        <v>53</v>
+      </c>
+      <c r="E171" t="s">
+        <v>54</v>
+      </c>
+      <c r="F171">
+        <v>0.049</v>
+      </c>
+      <c r="G171">
+        <v>0.0516842105263158</v>
+      </c>
+      <c r="H171">
+        <v>0.181</v>
+      </c>
+      <c r="I171">
+        <v>0.07829999999999999</v>
+      </c>
+      <c r="L171">
+        <v>0.053</v>
+      </c>
+      <c r="M171">
+        <v>0.065</v>
+      </c>
+      <c r="N171">
+        <v>0.06994</v>
+      </c>
+      <c r="O171">
+        <v>1878758.348</v>
+      </c>
+      <c r="P171">
+        <v>5554292.094</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>55</v>
+      </c>
+      <c r="R171" t="s">
+        <v>56</v>
+      </c>
+      <c r="S171" t="s">
+        <v>57</v>
+      </c>
+      <c r="T171" t="s">
+        <v>58</v>
+      </c>
+      <c r="U171" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
